--- a/cyclist_initial.xlsx
+++ b/cyclist_initial.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janice\Documents\cycling-data1\cycling-data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55779D5-3391-4C65-BE30-3477DBF9BFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9335"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cycling_Nairobi" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16853" uniqueCount="2254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18027" uniqueCount="2254">
   <si>
     <t>Gender of the participant</t>
   </si>
@@ -6784,14 +6790,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6799,346 +6799,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -7146,310 +6816,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -7734,53 +7118,55 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG414"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="BF1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BB413" sqref="BB413"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="31.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="32.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="31.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="37.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="19.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="22.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="20.7777777777778" customWidth="1"/>
-    <col min="11" max="11" width="16.4444444444444" customWidth="1"/>
-    <col min="13" max="13" width="54.2222222222222" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="54.28515625" customWidth="1"/>
     <col min="14" max="14" width="37" customWidth="1"/>
-    <col min="15" max="15" width="111.666666666667" customWidth="1"/>
-    <col min="16" max="16" width="70.2222222222222" customWidth="1"/>
-    <col min="17" max="17" width="46.8888888888889" customWidth="1"/>
-    <col min="18" max="18" width="45.5555555555556" customWidth="1"/>
-    <col min="19" max="19" width="59.1111111111111" customWidth="1"/>
-    <col min="20" max="20" width="60.2222222222222" customWidth="1"/>
+    <col min="15" max="15" width="111.7109375" customWidth="1"/>
+    <col min="16" max="16" width="70.28515625" customWidth="1"/>
+    <col min="17" max="17" width="46.85546875" customWidth="1"/>
+    <col min="18" max="18" width="45.5703125" customWidth="1"/>
+    <col min="19" max="19" width="59.140625" customWidth="1"/>
+    <col min="20" max="20" width="60.28515625" customWidth="1"/>
     <col min="21" max="21" width="59" customWidth="1"/>
-    <col min="22" max="22" width="52.7777777777778" customWidth="1"/>
-    <col min="23" max="23" width="42.4444444444444" customWidth="1"/>
-    <col min="24" max="24" width="43.6666666666667" customWidth="1"/>
-    <col min="25" max="25" width="25.4444444444444" customWidth="1"/>
-    <col min="26" max="26" width="35.1111111111111" customWidth="1"/>
-    <col min="27" max="27" width="54.4444444444444" customWidth="1"/>
-    <col min="50" max="50" width="111.555555555556" customWidth="1"/>
-    <col min="51" max="51" width="129.888888888889" customWidth="1"/>
-    <col min="52" max="52" width="155.222222222222" customWidth="1"/>
-    <col min="53" max="53" width="23.2222222222222" customWidth="1"/>
-    <col min="54" max="54" width="24.7777777777778" customWidth="1"/>
-    <col min="55" max="55" width="26.1111111111111" customWidth="1"/>
-    <col min="58" max="58" width="175.555555555556" customWidth="1"/>
-    <col min="59" max="59" width="255.777777777778" customWidth="1"/>
+    <col min="22" max="22" width="52.7109375" customWidth="1"/>
+    <col min="23" max="23" width="42.42578125" customWidth="1"/>
+    <col min="24" max="24" width="43.7109375" customWidth="1"/>
+    <col min="25" max="25" width="25.42578125" customWidth="1"/>
+    <col min="26" max="26" width="35.140625" customWidth="1"/>
+    <col min="27" max="27" width="54.42578125" customWidth="1"/>
+    <col min="50" max="50" width="111.5703125" customWidth="1"/>
+    <col min="51" max="51" width="129.85546875" customWidth="1"/>
+    <col min="52" max="52" width="155.28515625" customWidth="1"/>
+    <col min="53" max="53" width="23.28515625" customWidth="1"/>
+    <col min="54" max="54" width="24.7109375" customWidth="1"/>
+    <col min="55" max="55" width="26.140625" customWidth="1"/>
+    <col min="56" max="56" width="40" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="175.5703125" customWidth="1"/>
+    <col min="59" max="59" width="255.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
@@ -8092,17 +7478,17 @@
       <c r="BA2" t="s">
         <v>83</v>
       </c>
-      <c r="BB2">
-        <v>1</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
+      <c r="BB2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>61</v>
       </c>
       <c r="BF2" t="s">
         <v>84</v>
@@ -8378,17 +7764,17 @@
       <c r="BA4" t="s">
         <v>83</v>
       </c>
-      <c r="BB4">
-        <v>1</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
+      <c r="BB4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>61</v>
       </c>
       <c r="BF4" t="s">
         <v>109</v>
@@ -8628,17 +8014,17 @@
       <c r="BA6" t="s">
         <v>127</v>
       </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>1</v>
+      <c r="BB6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>63</v>
       </c>
       <c r="BF6" t="s">
         <v>128</v>
@@ -8911,17 +8297,17 @@
       <c r="BA8" t="s">
         <v>144</v>
       </c>
-      <c r="BB8">
-        <v>1</v>
-      </c>
-      <c r="BC8">
-        <v>1</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
+      <c r="BB8" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>61</v>
       </c>
       <c r="BF8" t="s">
         <v>145</v>
@@ -9268,17 +8654,17 @@
       <c r="BA11" t="s">
         <v>83</v>
       </c>
-      <c r="BB11">
-        <v>1</v>
-      </c>
-      <c r="BC11">
-        <v>0</v>
-      </c>
-      <c r="BD11">
-        <v>0</v>
-      </c>
-      <c r="BE11">
-        <v>0</v>
+      <c r="BB11" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>61</v>
       </c>
       <c r="BF11" t="s">
         <v>128</v>
@@ -9426,17 +8812,17 @@
       <c r="BA12" t="s">
         <v>83</v>
       </c>
-      <c r="BB12">
-        <v>1</v>
-      </c>
-      <c r="BC12">
-        <v>0</v>
-      </c>
-      <c r="BD12">
-        <v>0</v>
-      </c>
-      <c r="BE12">
-        <v>0</v>
+      <c r="BB12" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>61</v>
       </c>
       <c r="BF12" t="s">
         <v>172</v>
@@ -9569,17 +8955,17 @@
       <c r="BA13" t="s">
         <v>83</v>
       </c>
-      <c r="BB13">
-        <v>1</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
-      <c r="BD13">
-        <v>0</v>
-      </c>
-      <c r="BE13">
-        <v>0</v>
+      <c r="BB13" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>61</v>
       </c>
       <c r="BF13" t="s">
         <v>178</v>
@@ -9712,17 +9098,17 @@
       <c r="BA14" t="s">
         <v>184</v>
       </c>
-      <c r="BB14">
-        <v>0</v>
-      </c>
-      <c r="BC14">
-        <v>1</v>
-      </c>
-      <c r="BD14">
-        <v>0</v>
-      </c>
-      <c r="BE14">
-        <v>0</v>
+      <c r="BB14" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>61</v>
       </c>
       <c r="BF14" t="s">
         <v>185</v>
@@ -9855,17 +9241,17 @@
       <c r="BA15" t="s">
         <v>83</v>
       </c>
-      <c r="BB15">
-        <v>1</v>
-      </c>
-      <c r="BC15">
-        <v>0</v>
-      </c>
-      <c r="BD15">
-        <v>0</v>
-      </c>
-      <c r="BE15">
-        <v>0</v>
+      <c r="BB15" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>61</v>
       </c>
       <c r="BF15" t="s">
         <v>191</v>
@@ -9998,17 +9384,17 @@
       <c r="BA16" t="s">
         <v>83</v>
       </c>
-      <c r="BB16">
-        <v>1</v>
-      </c>
-      <c r="BC16">
-        <v>0</v>
-      </c>
-      <c r="BD16">
-        <v>0</v>
-      </c>
-      <c r="BE16">
-        <v>0</v>
+      <c r="BB16" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>61</v>
       </c>
       <c r="BF16" t="s">
         <v>196</v>
@@ -10099,17 +9485,17 @@
       <c r="BA17" t="s">
         <v>184</v>
       </c>
-      <c r="BB17">
-        <v>0</v>
-      </c>
-      <c r="BC17">
-        <v>1</v>
-      </c>
-      <c r="BD17">
-        <v>0</v>
-      </c>
-      <c r="BE17">
-        <v>0</v>
+      <c r="BB17" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>61</v>
       </c>
       <c r="BF17" t="s">
         <v>201</v>
@@ -10242,17 +9628,17 @@
       <c r="BA18" t="s">
         <v>127</v>
       </c>
-      <c r="BB18">
-        <v>0</v>
-      </c>
-      <c r="BC18">
-        <v>0</v>
-      </c>
-      <c r="BD18">
-        <v>0</v>
-      </c>
-      <c r="BE18">
-        <v>1</v>
+      <c r="BB18" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>63</v>
       </c>
       <c r="BF18" t="s">
         <v>206</v>
@@ -10388,17 +9774,17 @@
       <c r="BA19" t="s">
         <v>127</v>
       </c>
-      <c r="BB19">
-        <v>0</v>
-      </c>
-      <c r="BC19">
-        <v>0</v>
-      </c>
-      <c r="BD19">
-        <v>0</v>
-      </c>
-      <c r="BE19">
-        <v>1</v>
+      <c r="BB19" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>63</v>
       </c>
       <c r="BF19" t="s">
         <v>215</v>
@@ -10659,17 +10045,17 @@
       <c r="BA21" t="s">
         <v>127</v>
       </c>
-      <c r="BB21">
-        <v>0</v>
-      </c>
-      <c r="BC21">
-        <v>0</v>
-      </c>
-      <c r="BD21">
-        <v>0</v>
-      </c>
-      <c r="BE21">
-        <v>1</v>
+      <c r="BB21" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>63</v>
       </c>
       <c r="BF21" t="s">
         <v>89</v>
@@ -10802,17 +10188,17 @@
       <c r="BA22" t="s">
         <v>83</v>
       </c>
-      <c r="BB22">
-        <v>1</v>
-      </c>
-      <c r="BC22">
-        <v>0</v>
-      </c>
-      <c r="BD22">
-        <v>0</v>
-      </c>
-      <c r="BE22">
-        <v>0</v>
+      <c r="BB22" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>61</v>
       </c>
       <c r="BF22" t="s">
         <v>89</v>
@@ -10945,17 +10331,17 @@
       <c r="BA23" t="s">
         <v>83</v>
       </c>
-      <c r="BB23">
-        <v>1</v>
-      </c>
-      <c r="BC23">
-        <v>0</v>
-      </c>
-      <c r="BD23">
-        <v>0</v>
-      </c>
-      <c r="BE23">
-        <v>0</v>
+      <c r="BB23" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>61</v>
       </c>
       <c r="BF23" t="s">
         <v>234</v>
@@ -11088,17 +10474,17 @@
       <c r="BA24" t="s">
         <v>184</v>
       </c>
-      <c r="BB24">
-        <v>0</v>
-      </c>
-      <c r="BC24">
-        <v>1</v>
-      </c>
-      <c r="BD24">
-        <v>0</v>
-      </c>
-      <c r="BE24">
-        <v>0</v>
+      <c r="BB24" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>61</v>
       </c>
       <c r="BF24" t="s">
         <v>240</v>
@@ -11231,17 +10617,17 @@
       <c r="BA25" t="s">
         <v>245</v>
       </c>
-      <c r="BB25">
-        <v>1</v>
-      </c>
-      <c r="BC25">
-        <v>1</v>
-      </c>
-      <c r="BD25">
-        <v>1</v>
-      </c>
-      <c r="BE25">
-        <v>0</v>
+      <c r="BB25" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>63</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>61</v>
       </c>
       <c r="BF25" t="s">
         <v>246</v>
@@ -11380,17 +10766,17 @@
       <c r="BA26" t="s">
         <v>83</v>
       </c>
-      <c r="BB26">
-        <v>1</v>
-      </c>
-      <c r="BC26">
-        <v>0</v>
-      </c>
-      <c r="BD26">
-        <v>0</v>
-      </c>
-      <c r="BE26">
-        <v>0</v>
+      <c r="BB26" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>61</v>
       </c>
       <c r="BF26" t="s">
         <v>254</v>
@@ -11523,17 +10909,17 @@
       <c r="BA27" t="s">
         <v>83</v>
       </c>
-      <c r="BB27">
-        <v>1</v>
-      </c>
-      <c r="BC27">
-        <v>0</v>
-      </c>
-      <c r="BD27">
-        <v>0</v>
-      </c>
-      <c r="BE27">
-        <v>0</v>
+      <c r="BB27" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>61</v>
       </c>
       <c r="BF27" t="s">
         <v>258</v>
@@ -11681,17 +11067,17 @@
       <c r="BA28" t="s">
         <v>127</v>
       </c>
-      <c r="BB28">
-        <v>0</v>
-      </c>
-      <c r="BC28">
-        <v>0</v>
-      </c>
-      <c r="BD28">
-        <v>0</v>
-      </c>
-      <c r="BE28">
-        <v>1</v>
+      <c r="BB28" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>61</v>
       </c>
       <c r="BF28" t="s">
         <v>267</v>
@@ -11824,17 +11210,17 @@
       <c r="BA29" t="s">
         <v>83</v>
       </c>
-      <c r="BB29">
-        <v>1</v>
-      </c>
-      <c r="BC29">
-        <v>0</v>
-      </c>
-      <c r="BD29">
-        <v>0</v>
-      </c>
-      <c r="BE29">
-        <v>0</v>
+      <c r="BB29" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>61</v>
       </c>
       <c r="BF29" t="s">
         <v>273</v>
@@ -11967,17 +11353,17 @@
       <c r="BA30" t="s">
         <v>83</v>
       </c>
-      <c r="BB30">
-        <v>1</v>
-      </c>
-      <c r="BC30">
-        <v>0</v>
-      </c>
-      <c r="BD30">
-        <v>0</v>
-      </c>
-      <c r="BE30">
-        <v>0</v>
+      <c r="BB30" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>61</v>
       </c>
       <c r="BF30" t="s">
         <v>279</v>
@@ -12110,17 +11496,17 @@
       <c r="BA31" t="s">
         <v>83</v>
       </c>
-      <c r="BB31">
-        <v>1</v>
-      </c>
-      <c r="BC31">
-        <v>0</v>
-      </c>
-      <c r="BD31">
-        <v>0</v>
-      </c>
-      <c r="BE31">
-        <v>0</v>
+      <c r="BB31" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>61</v>
       </c>
       <c r="BF31" t="s">
         <v>285</v>
@@ -12253,17 +11639,17 @@
       <c r="BA32" t="s">
         <v>83</v>
       </c>
-      <c r="BB32">
-        <v>1</v>
-      </c>
-      <c r="BC32">
-        <v>0</v>
-      </c>
-      <c r="BD32">
-        <v>0</v>
-      </c>
-      <c r="BE32">
-        <v>0</v>
+      <c r="BB32" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>61</v>
       </c>
       <c r="BF32" t="s">
         <v>290</v>
@@ -12366,17 +11752,17 @@
       <c r="BA33" t="s">
         <v>127</v>
       </c>
-      <c r="BB33">
-        <v>0</v>
-      </c>
-      <c r="BC33">
-        <v>0</v>
-      </c>
-      <c r="BD33">
-        <v>0</v>
-      </c>
-      <c r="BE33">
-        <v>1</v>
+      <c r="BB33" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>63</v>
       </c>
       <c r="BF33" t="s">
         <v>297</v>
@@ -12509,17 +11895,17 @@
       <c r="BA34" t="s">
         <v>83</v>
       </c>
-      <c r="BB34">
-        <v>1</v>
-      </c>
-      <c r="BC34">
-        <v>0</v>
-      </c>
-      <c r="BD34">
-        <v>0</v>
-      </c>
-      <c r="BE34">
-        <v>0</v>
+      <c r="BB34" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>61</v>
       </c>
       <c r="BF34" t="s">
         <v>303</v>
@@ -12789,17 +12175,17 @@
       <c r="BA36" t="s">
         <v>127</v>
       </c>
-      <c r="BB36">
-        <v>0</v>
-      </c>
-      <c r="BC36">
-        <v>0</v>
-      </c>
-      <c r="BD36">
-        <v>0</v>
-      </c>
-      <c r="BE36">
-        <v>1</v>
+      <c r="BB36" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>63</v>
       </c>
       <c r="BF36" t="s">
         <v>313</v>
@@ -12947,17 +12333,17 @@
       <c r="BA37" t="s">
         <v>127</v>
       </c>
-      <c r="BB37">
-        <v>0</v>
-      </c>
-      <c r="BC37">
-        <v>0</v>
-      </c>
-      <c r="BD37">
-        <v>0</v>
-      </c>
-      <c r="BE37">
-        <v>1</v>
+      <c r="BB37" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>63</v>
       </c>
       <c r="BF37" t="s">
         <v>320</v>
@@ -13337,17 +12723,17 @@
       <c r="BA40" t="s">
         <v>127</v>
       </c>
-      <c r="BB40">
-        <v>0</v>
-      </c>
-      <c r="BC40">
-        <v>0</v>
-      </c>
-      <c r="BD40">
-        <v>0</v>
-      </c>
-      <c r="BE40">
-        <v>1</v>
+      <c r="BB40" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC40" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE40" t="s">
+        <v>63</v>
       </c>
       <c r="BF40" t="s">
         <v>338</v>
@@ -13608,17 +12994,17 @@
       <c r="BA42" t="s">
         <v>83</v>
       </c>
-      <c r="BB42">
-        <v>1</v>
-      </c>
-      <c r="BC42">
-        <v>0</v>
-      </c>
-      <c r="BD42">
-        <v>0</v>
-      </c>
-      <c r="BE42">
-        <v>0</v>
+      <c r="BB42" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC42" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD42" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE42" t="s">
+        <v>61</v>
       </c>
       <c r="BF42" t="s">
         <v>348</v>
@@ -13754,17 +13140,17 @@
       <c r="BA43" t="s">
         <v>83</v>
       </c>
-      <c r="BB43">
-        <v>1</v>
-      </c>
-      <c r="BC43">
-        <v>0</v>
-      </c>
-      <c r="BD43">
-        <v>0</v>
-      </c>
-      <c r="BE43">
-        <v>0</v>
+      <c r="BB43" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC43" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD43" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE43" t="s">
+        <v>61</v>
       </c>
       <c r="BF43" t="s">
         <v>354</v>
@@ -14022,17 +13408,17 @@
       <c r="BA45" t="s">
         <v>127</v>
       </c>
-      <c r="BB45">
-        <v>0</v>
-      </c>
-      <c r="BC45">
-        <v>0</v>
-      </c>
-      <c r="BD45">
-        <v>0</v>
-      </c>
-      <c r="BE45">
-        <v>1</v>
+      <c r="BB45" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC45" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD45" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE45" t="s">
+        <v>63</v>
       </c>
       <c r="BF45" t="s">
         <v>364</v>
@@ -14165,17 +13551,17 @@
       <c r="BA46" t="s">
         <v>83</v>
       </c>
-      <c r="BB46">
-        <v>1</v>
-      </c>
-      <c r="BC46">
-        <v>0</v>
-      </c>
-      <c r="BD46">
-        <v>0</v>
-      </c>
-      <c r="BE46">
-        <v>0</v>
+      <c r="BB46" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC46" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD46" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE46" t="s">
+        <v>61</v>
       </c>
       <c r="BF46" t="s">
         <v>369</v>
@@ -14403,17 +13789,17 @@
       <c r="BA48" t="s">
         <v>127</v>
       </c>
-      <c r="BB48">
-        <v>0</v>
-      </c>
-      <c r="BC48">
-        <v>0</v>
-      </c>
-      <c r="BD48">
-        <v>0</v>
-      </c>
-      <c r="BE48">
-        <v>1</v>
+      <c r="BB48" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC48" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD48" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE48" t="s">
+        <v>63</v>
       </c>
       <c r="BF48" t="s">
         <v>192</v>
@@ -14546,17 +13932,17 @@
       <c r="BA49" t="s">
         <v>83</v>
       </c>
-      <c r="BB49">
-        <v>1</v>
-      </c>
-      <c r="BC49">
-        <v>0</v>
-      </c>
-      <c r="BD49">
-        <v>0</v>
-      </c>
-      <c r="BE49">
-        <v>0</v>
+      <c r="BB49" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC49" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD49" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE49" t="s">
+        <v>61</v>
       </c>
       <c r="BF49" t="s">
         <v>382</v>
@@ -14704,17 +14090,17 @@
       <c r="BA50" t="s">
         <v>83</v>
       </c>
-      <c r="BB50">
-        <v>1</v>
-      </c>
-      <c r="BC50">
-        <v>0</v>
-      </c>
-      <c r="BD50">
-        <v>0</v>
-      </c>
-      <c r="BE50">
-        <v>0</v>
+      <c r="BB50" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC50" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD50" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE50" t="s">
+        <v>61</v>
       </c>
       <c r="BF50" t="s">
         <v>389</v>
@@ -14868,17 +14254,17 @@
       <c r="BA51" t="s">
         <v>83</v>
       </c>
-      <c r="BB51">
-        <v>1</v>
-      </c>
-      <c r="BC51">
-        <v>0</v>
-      </c>
-      <c r="BD51">
-        <v>0</v>
-      </c>
-      <c r="BE51">
-        <v>0</v>
+      <c r="BB51" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC51" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD51" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE51" t="s">
+        <v>61</v>
       </c>
       <c r="BF51" t="s">
         <v>399</v>
@@ -15011,17 +14397,17 @@
       <c r="BA52" t="s">
         <v>83</v>
       </c>
-      <c r="BB52">
-        <v>1</v>
-      </c>
-      <c r="BC52">
-        <v>0</v>
-      </c>
-      <c r="BD52">
-        <v>0</v>
-      </c>
-      <c r="BE52">
-        <v>0</v>
+      <c r="BB52" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC52" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD52" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE52" t="s">
+        <v>61</v>
       </c>
       <c r="BF52" t="s">
         <v>405</v>
@@ -15169,17 +14555,17 @@
       <c r="BA53" t="s">
         <v>83</v>
       </c>
-      <c r="BB53">
-        <v>1</v>
-      </c>
-      <c r="BC53">
-        <v>0</v>
-      </c>
-      <c r="BD53">
-        <v>0</v>
-      </c>
-      <c r="BE53">
-        <v>0</v>
+      <c r="BB53" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC53" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD53" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE53" t="s">
+        <v>61</v>
       </c>
       <c r="BF53" t="s">
         <v>413</v>
@@ -15461,17 +14847,17 @@
       <c r="BA55" t="s">
         <v>127</v>
       </c>
-      <c r="BB55">
-        <v>0</v>
-      </c>
-      <c r="BC55">
-        <v>0</v>
-      </c>
-      <c r="BD55">
-        <v>0</v>
-      </c>
-      <c r="BE55">
-        <v>1</v>
+      <c r="BB55" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC55" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD55" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE55" t="s">
+        <v>63</v>
       </c>
       <c r="BF55" t="s">
         <v>425</v>
@@ -15604,17 +14990,17 @@
       <c r="BA56" t="s">
         <v>83</v>
       </c>
-      <c r="BB56">
-        <v>1</v>
-      </c>
-      <c r="BC56">
-        <v>0</v>
-      </c>
-      <c r="BD56">
-        <v>0</v>
-      </c>
-      <c r="BE56">
-        <v>0</v>
+      <c r="BB56" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC56" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD56" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE56" t="s">
+        <v>61</v>
       </c>
       <c r="BF56" t="s">
         <v>313</v>
@@ -15750,17 +15136,17 @@
       <c r="BA57" t="s">
         <v>127</v>
       </c>
-      <c r="BB57">
-        <v>0</v>
-      </c>
-      <c r="BC57">
-        <v>0</v>
-      </c>
-      <c r="BD57">
-        <v>0</v>
-      </c>
-      <c r="BE57">
-        <v>1</v>
+      <c r="BB57" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC57" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD57" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE57" t="s">
+        <v>63</v>
       </c>
       <c r="BF57" t="s">
         <v>436</v>
@@ -15893,17 +15279,17 @@
       <c r="BA58" t="s">
         <v>83</v>
       </c>
-      <c r="BB58">
-        <v>1</v>
-      </c>
-      <c r="BC58">
-        <v>0</v>
-      </c>
-      <c r="BD58">
-        <v>0</v>
-      </c>
-      <c r="BE58">
-        <v>0</v>
+      <c r="BB58" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC58" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD58" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE58" t="s">
+        <v>61</v>
       </c>
       <c r="BF58" t="s">
         <v>441</v>
@@ -16048,17 +15434,17 @@
       <c r="BA59" t="s">
         <v>83</v>
       </c>
-      <c r="BB59">
-        <v>1</v>
-      </c>
-      <c r="BC59">
-        <v>0</v>
-      </c>
-      <c r="BD59">
-        <v>0</v>
-      </c>
-      <c r="BE59">
-        <v>0</v>
+      <c r="BB59" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC59" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD59" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE59" t="s">
+        <v>61</v>
       </c>
       <c r="BF59" t="s">
         <v>313</v>
@@ -16191,17 +15577,17 @@
       <c r="BA60" t="s">
         <v>83</v>
       </c>
-      <c r="BB60">
-        <v>1</v>
-      </c>
-      <c r="BC60">
-        <v>0</v>
-      </c>
-      <c r="BD60">
-        <v>0</v>
-      </c>
-      <c r="BE60">
-        <v>0</v>
+      <c r="BB60" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC60" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD60" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE60" t="s">
+        <v>61</v>
       </c>
       <c r="BF60" t="s">
         <v>450</v>
@@ -16328,6 +15714,9 @@
       <c r="AX61" t="s">
         <v>61</v>
       </c>
+      <c r="BB61" t="s">
+        <v>63</v>
+      </c>
       <c r="BF61" t="s">
         <v>89</v>
       </c>
@@ -16459,17 +15848,17 @@
       <c r="BA62" t="s">
         <v>83</v>
       </c>
-      <c r="BB62">
-        <v>1</v>
-      </c>
-      <c r="BC62">
-        <v>0</v>
-      </c>
-      <c r="BD62">
-        <v>0</v>
-      </c>
-      <c r="BE62">
-        <v>0</v>
+      <c r="BB62" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC62" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD62" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE62" t="s">
+        <v>61</v>
       </c>
       <c r="BF62" t="s">
         <v>457</v>
@@ -16602,17 +15991,17 @@
       <c r="BA63" t="s">
         <v>144</v>
       </c>
-      <c r="BB63">
-        <v>1</v>
-      </c>
-      <c r="BC63">
-        <v>1</v>
-      </c>
-      <c r="BD63">
-        <v>0</v>
-      </c>
-      <c r="BE63">
-        <v>0</v>
+      <c r="BB63" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC63" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD63" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE63" t="s">
+        <v>61</v>
       </c>
       <c r="BF63" t="s">
         <v>463</v>
@@ -16760,17 +16149,17 @@
       <c r="BA64" t="s">
         <v>83</v>
       </c>
-      <c r="BB64">
-        <v>1</v>
-      </c>
-      <c r="BC64">
-        <v>0</v>
-      </c>
-      <c r="BD64">
-        <v>0</v>
-      </c>
-      <c r="BE64">
-        <v>0</v>
+      <c r="BB64" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC64" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD64" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE64" t="s">
+        <v>61</v>
       </c>
       <c r="BF64" t="s">
         <v>469</v>
@@ -16855,6 +16244,9 @@
       <c r="AX65" t="s">
         <v>61</v>
       </c>
+      <c r="BB65" t="s">
+        <v>63</v>
+      </c>
       <c r="BF65" t="s">
         <v>475</v>
       </c>
@@ -17001,17 +16393,17 @@
       <c r="BA66" t="s">
         <v>83</v>
       </c>
-      <c r="BB66">
-        <v>1</v>
-      </c>
-      <c r="BC66">
-        <v>0</v>
-      </c>
-      <c r="BD66">
-        <v>0</v>
-      </c>
-      <c r="BE66">
-        <v>0</v>
+      <c r="BB66" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC66" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD66" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE66" t="s">
+        <v>61</v>
       </c>
       <c r="BF66" t="s">
         <v>482</v>
@@ -17144,17 +16536,17 @@
       <c r="BA67" t="s">
         <v>127</v>
       </c>
-      <c r="BB67">
-        <v>0</v>
-      </c>
-      <c r="BC67">
-        <v>0</v>
-      </c>
-      <c r="BD67">
-        <v>0</v>
-      </c>
-      <c r="BE67">
-        <v>1</v>
+      <c r="BB67" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC67" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD67" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE67" t="s">
+        <v>63</v>
       </c>
       <c r="BF67" t="s">
         <v>487</v>
@@ -17296,17 +16688,17 @@
       <c r="BA68" t="s">
         <v>127</v>
       </c>
-      <c r="BB68">
-        <v>0</v>
-      </c>
-      <c r="BC68">
-        <v>0</v>
-      </c>
-      <c r="BD68">
-        <v>0</v>
-      </c>
-      <c r="BE68">
-        <v>1</v>
+      <c r="BB68" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC68" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD68" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE68" t="s">
+        <v>63</v>
       </c>
       <c r="BF68" t="s">
         <v>495</v>
@@ -17439,17 +16831,17 @@
       <c r="BA69" t="s">
         <v>127</v>
       </c>
-      <c r="BB69">
-        <v>0</v>
-      </c>
-      <c r="BC69">
-        <v>0</v>
-      </c>
-      <c r="BD69">
-        <v>0</v>
-      </c>
-      <c r="BE69">
-        <v>1</v>
+      <c r="BB69" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC69" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD69" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE69" t="s">
+        <v>63</v>
       </c>
       <c r="BF69" t="s">
         <v>499</v>
@@ -17638,17 +17030,17 @@
       <c r="BA71" t="s">
         <v>83</v>
       </c>
-      <c r="BB71">
-        <v>1</v>
-      </c>
-      <c r="BC71">
-        <v>0</v>
-      </c>
-      <c r="BD71">
-        <v>0</v>
-      </c>
-      <c r="BE71">
-        <v>0</v>
+      <c r="BB71" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC71" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD71" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE71" t="s">
+        <v>61</v>
       </c>
       <c r="BF71" t="s">
         <v>185</v>
@@ -17784,17 +17176,17 @@
       <c r="BA72" t="s">
         <v>127</v>
       </c>
-      <c r="BB72">
-        <v>0</v>
-      </c>
-      <c r="BC72">
-        <v>0</v>
-      </c>
-      <c r="BD72">
-        <v>0</v>
-      </c>
-      <c r="BE72">
-        <v>1</v>
+      <c r="BB72" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC72" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD72" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE72" t="s">
+        <v>63</v>
       </c>
       <c r="BF72" t="s">
         <v>516</v>
@@ -17927,17 +17319,17 @@
       <c r="BA73" t="s">
         <v>127</v>
       </c>
-      <c r="BB73">
-        <v>0</v>
-      </c>
-      <c r="BC73">
-        <v>0</v>
-      </c>
-      <c r="BD73">
-        <v>0</v>
-      </c>
-      <c r="BE73">
-        <v>1</v>
+      <c r="BB73" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC73" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD73" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE73" t="s">
+        <v>63</v>
       </c>
       <c r="BF73" t="s">
         <v>521</v>
@@ -18082,17 +17474,17 @@
       <c r="BA74" t="s">
         <v>83</v>
       </c>
-      <c r="BB74">
-        <v>1</v>
-      </c>
-      <c r="BC74">
-        <v>0</v>
-      </c>
-      <c r="BD74">
-        <v>0</v>
-      </c>
-      <c r="BE74">
-        <v>0</v>
+      <c r="BB74" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC74" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD74" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE74" t="s">
+        <v>61</v>
       </c>
       <c r="BF74" t="s">
         <v>527</v>
@@ -18228,17 +17620,17 @@
       <c r="BA75" t="s">
         <v>127</v>
       </c>
-      <c r="BB75">
-        <v>0</v>
-      </c>
-      <c r="BC75">
-        <v>0</v>
-      </c>
-      <c r="BD75">
-        <v>0</v>
-      </c>
-      <c r="BE75">
-        <v>1</v>
+      <c r="BB75" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC75" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD75" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE75" t="s">
+        <v>63</v>
       </c>
       <c r="BF75" t="s">
         <v>533</v>
@@ -18383,17 +17775,17 @@
       <c r="BA76" t="s">
         <v>83</v>
       </c>
-      <c r="BB76">
-        <v>1</v>
-      </c>
-      <c r="BC76">
-        <v>0</v>
-      </c>
-      <c r="BD76">
-        <v>0</v>
-      </c>
-      <c r="BE76">
-        <v>0</v>
+      <c r="BB76" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC76" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD76" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE76" t="s">
+        <v>61</v>
       </c>
       <c r="BF76" t="s">
         <v>539</v>
@@ -18541,17 +17933,17 @@
       <c r="BA77" t="s">
         <v>127</v>
       </c>
-      <c r="BB77">
-        <v>0</v>
-      </c>
-      <c r="BC77">
-        <v>0</v>
-      </c>
-      <c r="BD77">
-        <v>0</v>
-      </c>
-      <c r="BE77">
-        <v>1</v>
+      <c r="BB77" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC77" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD77" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE77" t="s">
+        <v>63</v>
       </c>
       <c r="BF77" t="s">
         <v>543</v>
@@ -18684,17 +18076,17 @@
       <c r="BA78" t="s">
         <v>83</v>
       </c>
-      <c r="BB78">
-        <v>1</v>
-      </c>
-      <c r="BC78">
-        <v>0</v>
-      </c>
-      <c r="BD78">
-        <v>0</v>
-      </c>
-      <c r="BE78">
-        <v>0</v>
+      <c r="BB78" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC78" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD78" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE78" t="s">
+        <v>61</v>
       </c>
       <c r="BF78" t="s">
         <v>547</v>
@@ -18827,17 +18219,17 @@
       <c r="BA79" t="s">
         <v>83</v>
       </c>
-      <c r="BB79">
-        <v>1</v>
-      </c>
-      <c r="BC79">
-        <v>0</v>
-      </c>
-      <c r="BD79">
-        <v>0</v>
-      </c>
-      <c r="BE79">
-        <v>0</v>
+      <c r="BB79" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC79" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD79" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE79" t="s">
+        <v>61</v>
       </c>
       <c r="BF79" t="s">
         <v>552</v>
@@ -18973,17 +18365,17 @@
       <c r="BA80" t="s">
         <v>83</v>
       </c>
-      <c r="BB80">
-        <v>1</v>
-      </c>
-      <c r="BC80">
-        <v>0</v>
-      </c>
-      <c r="BD80">
-        <v>0</v>
-      </c>
-      <c r="BE80">
-        <v>0</v>
+      <c r="BB80" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC80" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD80" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE80" t="s">
+        <v>61</v>
       </c>
       <c r="BF80" t="s">
         <v>558</v>
@@ -19068,6 +18460,9 @@
       <c r="AX81" t="s">
         <v>61</v>
       </c>
+      <c r="BB81" t="s">
+        <v>63</v>
+      </c>
       <c r="BF81" t="s">
         <v>563</v>
       </c>
@@ -19211,17 +18606,17 @@
       <c r="BA82" t="s">
         <v>568</v>
       </c>
-      <c r="BB82">
-        <v>1</v>
-      </c>
-      <c r="BC82">
-        <v>0</v>
-      </c>
-      <c r="BD82">
-        <v>1</v>
-      </c>
-      <c r="BE82">
-        <v>0</v>
+      <c r="BB82" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC82" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD82" t="s">
+        <v>63</v>
+      </c>
+      <c r="BE82" t="s">
+        <v>61</v>
       </c>
       <c r="BF82" t="s">
         <v>313</v>
@@ -19354,17 +18749,17 @@
       <c r="BA83" t="s">
         <v>83</v>
       </c>
-      <c r="BB83">
-        <v>1</v>
-      </c>
-      <c r="BC83">
-        <v>0</v>
-      </c>
-      <c r="BD83">
-        <v>0</v>
-      </c>
-      <c r="BE83">
-        <v>0</v>
+      <c r="BB83" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC83" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD83" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE83" t="s">
+        <v>61</v>
       </c>
       <c r="BF83" t="s">
         <v>572</v>
@@ -19622,17 +19017,17 @@
       <c r="BA85" t="s">
         <v>127</v>
       </c>
-      <c r="BB85">
-        <v>0</v>
-      </c>
-      <c r="BC85">
-        <v>0</v>
-      </c>
-      <c r="BD85">
-        <v>0</v>
-      </c>
-      <c r="BE85">
-        <v>1</v>
+      <c r="BB85" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC85" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD85" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE85" t="s">
+        <v>63</v>
       </c>
       <c r="BF85" t="s">
         <v>419</v>
@@ -19893,17 +19288,17 @@
       <c r="BA87" t="s">
         <v>127</v>
       </c>
-      <c r="BB87">
-        <v>0</v>
-      </c>
-      <c r="BC87">
-        <v>0</v>
-      </c>
-      <c r="BD87">
-        <v>0</v>
-      </c>
-      <c r="BE87">
-        <v>1</v>
+      <c r="BB87" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC87" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD87" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE87" t="s">
+        <v>63</v>
       </c>
       <c r="BF87" t="s">
         <v>591</v>
@@ -20161,17 +19556,17 @@
       <c r="BA89" t="s">
         <v>83</v>
       </c>
-      <c r="BB89">
-        <v>1</v>
-      </c>
-      <c r="BC89">
-        <v>0</v>
-      </c>
-      <c r="BD89">
-        <v>0</v>
-      </c>
-      <c r="BE89">
-        <v>0</v>
+      <c r="BB89" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC89" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD89" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE89" t="s">
+        <v>61</v>
       </c>
       <c r="BF89" t="s">
         <v>591</v>
@@ -20304,17 +19699,17 @@
       <c r="BA90" t="s">
         <v>144</v>
       </c>
-      <c r="BB90">
-        <v>1</v>
-      </c>
-      <c r="BC90">
-        <v>1</v>
-      </c>
-      <c r="BD90">
-        <v>0</v>
-      </c>
-      <c r="BE90">
-        <v>0</v>
+      <c r="BB90" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC90" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD90" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE90" t="s">
+        <v>61</v>
       </c>
       <c r="BF90" t="s">
         <v>602</v>
@@ -20450,17 +19845,17 @@
       <c r="BA91" t="s">
         <v>127</v>
       </c>
-      <c r="BB91">
-        <v>0</v>
-      </c>
-      <c r="BC91">
-        <v>0</v>
-      </c>
-      <c r="BD91">
-        <v>0</v>
-      </c>
-      <c r="BE91">
-        <v>1</v>
+      <c r="BB91" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC91" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD91" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE91" t="s">
+        <v>63</v>
       </c>
       <c r="BF91" t="s">
         <v>608</v>
@@ -20724,17 +20119,17 @@
       <c r="BA93" t="s">
         <v>83</v>
       </c>
-      <c r="BB93">
-        <v>1</v>
-      </c>
-      <c r="BC93">
-        <v>0</v>
-      </c>
-      <c r="BD93">
-        <v>0</v>
-      </c>
-      <c r="BE93">
-        <v>0</v>
+      <c r="BB93" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC93" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD93" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE93" t="s">
+        <v>61</v>
       </c>
       <c r="BF93" t="s">
         <v>620</v>
@@ -20879,17 +20274,17 @@
       <c r="BA94" t="s">
         <v>127</v>
       </c>
-      <c r="BB94">
-        <v>0</v>
-      </c>
-      <c r="BC94">
-        <v>0</v>
-      </c>
-      <c r="BD94">
-        <v>0</v>
-      </c>
-      <c r="BE94">
-        <v>1</v>
+      <c r="BB94" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC94" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD94" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE94" t="s">
+        <v>63</v>
       </c>
       <c r="BF94" t="s">
         <v>624</v>
@@ -21022,17 +20417,17 @@
       <c r="BA95" t="s">
         <v>83</v>
       </c>
-      <c r="BB95">
-        <v>1</v>
-      </c>
-      <c r="BC95">
-        <v>0</v>
-      </c>
-      <c r="BD95">
-        <v>0</v>
-      </c>
-      <c r="BE95">
-        <v>0</v>
+      <c r="BB95" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC95" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD95" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE95" t="s">
+        <v>61</v>
       </c>
       <c r="BF95" t="s">
         <v>629</v>
@@ -21123,17 +20518,17 @@
       <c r="BA96" t="s">
         <v>127</v>
       </c>
-      <c r="BB96">
-        <v>0</v>
-      </c>
-      <c r="BC96">
-        <v>0</v>
-      </c>
-      <c r="BD96">
-        <v>0</v>
-      </c>
-      <c r="BE96">
-        <v>1</v>
+      <c r="BB96" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC96" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD96" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE96" t="s">
+        <v>63</v>
       </c>
       <c r="BF96" t="s">
         <v>634</v>
@@ -21236,17 +20631,17 @@
       <c r="BA97" t="s">
         <v>127</v>
       </c>
-      <c r="BB97">
-        <v>0</v>
-      </c>
-      <c r="BC97">
-        <v>0</v>
-      </c>
-      <c r="BD97">
-        <v>0</v>
-      </c>
-      <c r="BE97">
-        <v>1</v>
+      <c r="BB97" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC97" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD97" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE97" t="s">
+        <v>63</v>
       </c>
       <c r="BF97" t="s">
         <v>640</v>
@@ -21379,17 +20774,17 @@
       <c r="BA98" t="s">
         <v>83</v>
       </c>
-      <c r="BB98">
-        <v>1</v>
-      </c>
-      <c r="BC98">
-        <v>0</v>
-      </c>
-      <c r="BD98">
-        <v>0</v>
-      </c>
-      <c r="BE98">
-        <v>0</v>
+      <c r="BB98" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC98" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD98" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE98" t="s">
+        <v>61</v>
       </c>
       <c r="BF98" t="s">
         <v>645</v>
@@ -21537,17 +20932,17 @@
       <c r="BA99" t="s">
         <v>127</v>
       </c>
-      <c r="BB99">
-        <v>0</v>
-      </c>
-      <c r="BC99">
-        <v>0</v>
-      </c>
-      <c r="BD99">
-        <v>0</v>
-      </c>
-      <c r="BE99">
-        <v>1</v>
+      <c r="BB99" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC99" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD99" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE99" t="s">
+        <v>63</v>
       </c>
       <c r="BF99" t="s">
         <v>652</v>
@@ -21692,17 +21087,17 @@
       <c r="BA100" t="s">
         <v>83</v>
       </c>
-      <c r="BB100">
-        <v>1</v>
-      </c>
-      <c r="BC100">
-        <v>0</v>
-      </c>
-      <c r="BD100">
-        <v>0</v>
-      </c>
-      <c r="BE100">
-        <v>0</v>
+      <c r="BB100" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC100" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD100" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE100" t="s">
+        <v>61</v>
       </c>
       <c r="BF100" t="s">
         <v>656</v>
@@ -21945,17 +21340,17 @@
       <c r="BA102" t="s">
         <v>83</v>
       </c>
-      <c r="BB102">
-        <v>1</v>
-      </c>
-      <c r="BC102">
-        <v>0</v>
-      </c>
-      <c r="BD102">
-        <v>0</v>
-      </c>
-      <c r="BE102">
-        <v>0</v>
+      <c r="BB102" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC102" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD102" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE102" t="s">
+        <v>61</v>
       </c>
       <c r="BF102" t="s">
         <v>670</v>
@@ -22240,17 +21635,17 @@
       <c r="BA104" t="s">
         <v>83</v>
       </c>
-      <c r="BB104">
-        <v>1</v>
-      </c>
-      <c r="BC104">
-        <v>0</v>
-      </c>
-      <c r="BD104">
-        <v>0</v>
-      </c>
-      <c r="BE104">
-        <v>0</v>
+      <c r="BB104" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC104" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD104" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE104" t="s">
+        <v>61</v>
       </c>
       <c r="BF104" t="s">
         <v>681</v>
@@ -22383,17 +21778,17 @@
       <c r="BA105" t="s">
         <v>127</v>
       </c>
-      <c r="BB105">
-        <v>0</v>
-      </c>
-      <c r="BC105">
-        <v>0</v>
-      </c>
-      <c r="BD105">
-        <v>0</v>
-      </c>
-      <c r="BE105">
-        <v>1</v>
+      <c r="BB105" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC105" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD105" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE105" t="s">
+        <v>63</v>
       </c>
       <c r="BF105" t="s">
         <v>686</v>
@@ -22526,17 +21921,17 @@
       <c r="BA106" t="s">
         <v>127</v>
       </c>
-      <c r="BB106">
-        <v>0</v>
-      </c>
-      <c r="BC106">
-        <v>0</v>
-      </c>
-      <c r="BD106">
-        <v>0</v>
-      </c>
-      <c r="BE106">
-        <v>1</v>
+      <c r="BB106" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC106" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD106" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE106" t="s">
+        <v>63</v>
       </c>
       <c r="BF106" t="s">
         <v>89</v>
@@ -22669,17 +22064,17 @@
       <c r="BA107" t="s">
         <v>127</v>
       </c>
-      <c r="BB107">
-        <v>0</v>
-      </c>
-      <c r="BC107">
-        <v>0</v>
-      </c>
-      <c r="BD107">
-        <v>0</v>
-      </c>
-      <c r="BE107">
-        <v>1</v>
+      <c r="BB107" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC107" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD107" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE107" t="s">
+        <v>63</v>
       </c>
       <c r="BF107" t="s">
         <v>695</v>
@@ -22937,17 +22332,17 @@
       <c r="BA109" t="s">
         <v>127</v>
       </c>
-      <c r="BB109">
-        <v>0</v>
-      </c>
-      <c r="BC109">
-        <v>0</v>
-      </c>
-      <c r="BD109">
-        <v>0</v>
-      </c>
-      <c r="BE109">
-        <v>1</v>
+      <c r="BB109" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC109" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD109" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE109" t="s">
+        <v>63</v>
       </c>
       <c r="BF109" t="s">
         <v>704</v>
@@ -23083,17 +22478,17 @@
       <c r="BA110" t="s">
         <v>83</v>
       </c>
-      <c r="BB110">
-        <v>1</v>
-      </c>
-      <c r="BC110">
-        <v>0</v>
-      </c>
-      <c r="BD110">
-        <v>0</v>
-      </c>
-      <c r="BE110">
-        <v>0</v>
+      <c r="BB110" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC110" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD110" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE110" t="s">
+        <v>61</v>
       </c>
       <c r="BF110" t="s">
         <v>710</v>
@@ -23226,17 +22621,17 @@
       <c r="BA111" t="s">
         <v>83</v>
       </c>
-      <c r="BB111">
-        <v>1</v>
-      </c>
-      <c r="BC111">
-        <v>0</v>
-      </c>
-      <c r="BD111">
-        <v>0</v>
-      </c>
-      <c r="BE111">
-        <v>0</v>
+      <c r="BB111" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC111" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD111" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE111" t="s">
+        <v>61</v>
       </c>
       <c r="BF111" t="s">
         <v>715</v>
@@ -23372,17 +22767,17 @@
       <c r="BA112" t="s">
         <v>83</v>
       </c>
-      <c r="BB112">
-        <v>1</v>
-      </c>
-      <c r="BC112">
-        <v>0</v>
-      </c>
-      <c r="BD112">
-        <v>0</v>
-      </c>
-      <c r="BE112">
-        <v>0</v>
+      <c r="BB112" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC112" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD112" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE112" t="s">
+        <v>61</v>
       </c>
       <c r="BF112" t="s">
         <v>720</v>
@@ -23518,17 +22913,17 @@
       <c r="BA113" t="s">
         <v>245</v>
       </c>
-      <c r="BB113">
-        <v>1</v>
-      </c>
-      <c r="BC113">
-        <v>1</v>
-      </c>
-      <c r="BD113">
-        <v>1</v>
-      </c>
-      <c r="BE113">
-        <v>0</v>
+      <c r="BB113" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC113" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD113" t="s">
+        <v>63</v>
+      </c>
+      <c r="BE113" t="s">
+        <v>61</v>
       </c>
       <c r="BF113" t="s">
         <v>726</v>
@@ -23679,17 +23074,17 @@
       <c r="BA114" t="s">
         <v>83</v>
       </c>
-      <c r="BB114">
-        <v>1</v>
-      </c>
-      <c r="BC114">
-        <v>0</v>
-      </c>
-      <c r="BD114">
-        <v>0</v>
-      </c>
-      <c r="BE114">
-        <v>0</v>
+      <c r="BB114" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC114" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD114" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE114" t="s">
+        <v>61</v>
       </c>
       <c r="BF114" t="s">
         <v>734</v>
@@ -23792,17 +23187,17 @@
       <c r="BA115" t="s">
         <v>184</v>
       </c>
-      <c r="BB115">
-        <v>0</v>
-      </c>
-      <c r="BC115">
-        <v>1</v>
-      </c>
-      <c r="BD115">
-        <v>0</v>
-      </c>
-      <c r="BE115">
-        <v>0</v>
+      <c r="BB115" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC115" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD115" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE115" t="s">
+        <v>61</v>
       </c>
       <c r="BF115" t="s">
         <v>739</v>
@@ -23947,17 +23342,17 @@
       <c r="BA116" t="s">
         <v>127</v>
       </c>
-      <c r="BB116">
-        <v>0</v>
-      </c>
-      <c r="BC116">
-        <v>0</v>
-      </c>
-      <c r="BD116">
-        <v>0</v>
-      </c>
-      <c r="BE116">
-        <v>1</v>
+      <c r="BB116" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC116" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD116" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE116" t="s">
+        <v>63</v>
       </c>
       <c r="BF116" t="s">
         <v>745</v>
@@ -24233,17 +23628,17 @@
       <c r="BA118" t="s">
         <v>144</v>
       </c>
-      <c r="BB118">
-        <v>1</v>
-      </c>
-      <c r="BC118">
-        <v>1</v>
-      </c>
-      <c r="BD118">
-        <v>0</v>
-      </c>
-      <c r="BE118">
-        <v>0</v>
+      <c r="BB118" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC118" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD118" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE118" t="s">
+        <v>61</v>
       </c>
       <c r="BF118" t="s">
         <v>756</v>
@@ -24388,17 +23783,17 @@
       <c r="BA119" t="s">
         <v>144</v>
       </c>
-      <c r="BB119">
-        <v>1</v>
-      </c>
-      <c r="BC119">
-        <v>1</v>
-      </c>
-      <c r="BD119">
-        <v>0</v>
-      </c>
-      <c r="BE119">
-        <v>0</v>
+      <c r="BB119" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC119" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD119" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE119" t="s">
+        <v>61</v>
       </c>
       <c r="BF119" t="s">
         <v>762</v>
@@ -24549,17 +23944,17 @@
       <c r="BA120" t="s">
         <v>83</v>
       </c>
-      <c r="BB120">
-        <v>1</v>
-      </c>
-      <c r="BC120">
-        <v>0</v>
-      </c>
-      <c r="BD120">
-        <v>0</v>
-      </c>
-      <c r="BE120">
-        <v>0</v>
+      <c r="BB120" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC120" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD120" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE120" t="s">
+        <v>61</v>
       </c>
       <c r="BF120" t="s">
         <v>770</v>
@@ -24704,17 +24099,17 @@
       <c r="BA121" t="s">
         <v>127</v>
       </c>
-      <c r="BB121">
-        <v>0</v>
-      </c>
-      <c r="BC121">
-        <v>0</v>
-      </c>
-      <c r="BD121">
-        <v>0</v>
-      </c>
-      <c r="BE121">
-        <v>1</v>
+      <c r="BB121" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC121" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD121" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE121" t="s">
+        <v>63</v>
       </c>
       <c r="BF121" t="s">
         <v>776</v>
@@ -24847,17 +24242,17 @@
       <c r="BA122" t="s">
         <v>83</v>
       </c>
-      <c r="BB122">
-        <v>1</v>
-      </c>
-      <c r="BC122">
-        <v>0</v>
-      </c>
-      <c r="BD122">
-        <v>0</v>
-      </c>
-      <c r="BE122">
-        <v>0</v>
+      <c r="BB122" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC122" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD122" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE122" t="s">
+        <v>61</v>
       </c>
       <c r="BF122" t="s">
         <v>782</v>
@@ -24993,17 +24388,17 @@
       <c r="BA123" t="s">
         <v>83</v>
       </c>
-      <c r="BB123">
-        <v>1</v>
-      </c>
-      <c r="BC123">
-        <v>0</v>
-      </c>
-      <c r="BD123">
-        <v>0</v>
-      </c>
-      <c r="BE123">
-        <v>0</v>
+      <c r="BB123" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC123" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD123" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE123" t="s">
+        <v>61</v>
       </c>
       <c r="BF123" t="s">
         <v>788</v>
@@ -25148,17 +24543,17 @@
       <c r="BA124" t="s">
         <v>83</v>
       </c>
-      <c r="BB124">
-        <v>1</v>
-      </c>
-      <c r="BC124">
-        <v>0</v>
-      </c>
-      <c r="BD124">
-        <v>0</v>
-      </c>
-      <c r="BE124">
-        <v>0</v>
+      <c r="BB124" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC124" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD124" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE124" t="s">
+        <v>61</v>
       </c>
       <c r="BF124" t="s">
         <v>794</v>
@@ -25303,17 +24698,17 @@
       <c r="BA125" t="s">
         <v>127</v>
       </c>
-      <c r="BB125">
-        <v>0</v>
-      </c>
-      <c r="BC125">
-        <v>0</v>
-      </c>
-      <c r="BD125">
-        <v>0</v>
-      </c>
-      <c r="BE125">
-        <v>1</v>
+      <c r="BB125" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC125" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD125" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE125" t="s">
+        <v>63</v>
       </c>
       <c r="BF125" t="s">
         <v>800</v>
@@ -25458,17 +24853,17 @@
       <c r="BA126" t="s">
         <v>806</v>
       </c>
-      <c r="BB126">
-        <v>0</v>
-      </c>
-      <c r="BC126">
-        <v>1</v>
-      </c>
-      <c r="BD126">
-        <v>1</v>
-      </c>
-      <c r="BE126">
-        <v>0</v>
+      <c r="BB126" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC126" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD126" t="s">
+        <v>63</v>
+      </c>
+      <c r="BE126" t="s">
+        <v>61</v>
       </c>
       <c r="BF126" t="s">
         <v>807</v>
@@ -25821,17 +25216,17 @@
       <c r="BA129" t="s">
         <v>83</v>
       </c>
-      <c r="BB129">
-        <v>1</v>
-      </c>
-      <c r="BC129">
-        <v>0</v>
-      </c>
-      <c r="BD129">
-        <v>0</v>
-      </c>
-      <c r="BE129">
-        <v>0</v>
+      <c r="BB129" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC129" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD129" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE129" t="s">
+        <v>61</v>
       </c>
       <c r="BF129" t="s">
         <v>820</v>
@@ -25964,17 +25359,17 @@
       <c r="BA130" t="s">
         <v>127</v>
       </c>
-      <c r="BB130">
-        <v>0</v>
-      </c>
-      <c r="BC130">
-        <v>0</v>
-      </c>
-      <c r="BD130">
-        <v>0</v>
-      </c>
-      <c r="BE130">
-        <v>1</v>
+      <c r="BB130" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC130" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD130" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE130" t="s">
+        <v>63</v>
       </c>
       <c r="BF130" t="s">
         <v>826</v>
@@ -26107,17 +25502,17 @@
       <c r="BA131" t="s">
         <v>83</v>
       </c>
-      <c r="BB131">
-        <v>1</v>
-      </c>
-      <c r="BC131">
-        <v>0</v>
-      </c>
-      <c r="BD131">
-        <v>0</v>
-      </c>
-      <c r="BE131">
-        <v>0</v>
+      <c r="BB131" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC131" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD131" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE131" t="s">
+        <v>61</v>
       </c>
       <c r="BF131" t="s">
         <v>830</v>
@@ -26250,17 +25645,17 @@
       <c r="BA132" t="s">
         <v>144</v>
       </c>
-      <c r="BB132">
-        <v>1</v>
-      </c>
-      <c r="BC132">
-        <v>1</v>
-      </c>
-      <c r="BD132">
-        <v>0</v>
-      </c>
-      <c r="BE132">
-        <v>0</v>
+      <c r="BB132" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC132" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD132" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE132" t="s">
+        <v>61</v>
       </c>
       <c r="BF132" t="s">
         <v>835</v>
@@ -26396,17 +25791,17 @@
       <c r="BA133" t="s">
         <v>83</v>
       </c>
-      <c r="BB133">
-        <v>1</v>
-      </c>
-      <c r="BC133">
-        <v>0</v>
-      </c>
-      <c r="BD133">
-        <v>0</v>
-      </c>
-      <c r="BE133">
-        <v>0</v>
+      <c r="BB133" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC133" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD133" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE133" t="s">
+        <v>61</v>
       </c>
       <c r="BF133" t="s">
         <v>841</v>
@@ -26551,17 +25946,17 @@
       <c r="BA134" t="s">
         <v>83</v>
       </c>
-      <c r="BB134">
-        <v>1</v>
-      </c>
-      <c r="BC134">
-        <v>0</v>
-      </c>
-      <c r="BD134">
-        <v>0</v>
-      </c>
-      <c r="BE134">
-        <v>0</v>
+      <c r="BB134" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC134" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD134" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE134" t="s">
+        <v>61</v>
       </c>
       <c r="BF134" t="s">
         <v>847</v>
@@ -26759,17 +26154,17 @@
       <c r="BA136" t="s">
         <v>127</v>
       </c>
-      <c r="BB136">
-        <v>0</v>
-      </c>
-      <c r="BC136">
-        <v>0</v>
-      </c>
-      <c r="BD136">
-        <v>0</v>
-      </c>
-      <c r="BE136">
-        <v>1</v>
+      <c r="BB136" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC136" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD136" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE136" t="s">
+        <v>63</v>
       </c>
       <c r="BF136" t="s">
         <v>859</v>
@@ -26905,17 +26300,17 @@
       <c r="BA137" t="s">
         <v>83</v>
       </c>
-      <c r="BB137">
-        <v>1</v>
-      </c>
-      <c r="BC137">
-        <v>0</v>
-      </c>
-      <c r="BD137">
-        <v>0</v>
-      </c>
-      <c r="BE137">
-        <v>0</v>
+      <c r="BB137" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC137" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD137" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE137" t="s">
+        <v>61</v>
       </c>
       <c r="BF137" t="s">
         <v>865</v>
@@ -27060,17 +26455,17 @@
       <c r="BA138" t="s">
         <v>127</v>
       </c>
-      <c r="BB138">
-        <v>0</v>
-      </c>
-      <c r="BC138">
-        <v>0</v>
-      </c>
-      <c r="BD138">
-        <v>0</v>
-      </c>
-      <c r="BE138">
-        <v>1</v>
+      <c r="BB138" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC138" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD138" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE138" t="s">
+        <v>63</v>
       </c>
       <c r="BF138" t="s">
         <v>870</v>
@@ -27203,17 +26598,17 @@
       <c r="BA139" t="s">
         <v>83</v>
       </c>
-      <c r="BB139">
-        <v>1</v>
-      </c>
-      <c r="BC139">
-        <v>0</v>
-      </c>
-      <c r="BD139">
-        <v>0</v>
-      </c>
-      <c r="BE139">
-        <v>0</v>
+      <c r="BB139" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC139" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD139" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE139" t="s">
+        <v>61</v>
       </c>
       <c r="BF139" t="s">
         <v>872</v>
@@ -27358,17 +26753,17 @@
       <c r="BA140" t="s">
         <v>127</v>
       </c>
-      <c r="BB140">
-        <v>0</v>
-      </c>
-      <c r="BC140">
-        <v>0</v>
-      </c>
-      <c r="BD140">
-        <v>0</v>
-      </c>
-      <c r="BE140">
-        <v>1</v>
+      <c r="BB140" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC140" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD140" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE140" t="s">
+        <v>63</v>
       </c>
       <c r="BF140" t="s">
         <v>877</v>
@@ -27641,17 +27036,17 @@
       <c r="BA142" t="s">
         <v>83</v>
       </c>
-      <c r="BB142">
-        <v>1</v>
-      </c>
-      <c r="BC142">
-        <v>0</v>
-      </c>
-      <c r="BD142">
-        <v>0</v>
-      </c>
-      <c r="BE142">
-        <v>0</v>
+      <c r="BB142" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC142" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD142" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE142" t="s">
+        <v>61</v>
       </c>
       <c r="BF142" t="s">
         <v>889</v>
@@ -27790,17 +27185,17 @@
       <c r="BA143" t="s">
         <v>144</v>
       </c>
-      <c r="BB143">
-        <v>1</v>
-      </c>
-      <c r="BC143">
-        <v>1</v>
-      </c>
-      <c r="BD143">
-        <v>0</v>
-      </c>
-      <c r="BE143">
-        <v>0</v>
+      <c r="BB143" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC143" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD143" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE143" t="s">
+        <v>61</v>
       </c>
       <c r="BF143" t="s">
         <v>896</v>
@@ -27948,17 +27343,17 @@
       <c r="BA144" t="s">
         <v>127</v>
       </c>
-      <c r="BB144">
-        <v>0</v>
-      </c>
-      <c r="BC144">
-        <v>0</v>
-      </c>
-      <c r="BD144">
-        <v>0</v>
-      </c>
-      <c r="BE144">
-        <v>1</v>
+      <c r="BB144" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC144" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD144" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE144" t="s">
+        <v>63</v>
       </c>
       <c r="BF144" t="s">
         <v>903</v>
@@ -28091,17 +27486,17 @@
       <c r="BA145" t="s">
         <v>127</v>
       </c>
-      <c r="BB145">
-        <v>0</v>
-      </c>
-      <c r="BC145">
-        <v>0</v>
-      </c>
-      <c r="BD145">
-        <v>0</v>
-      </c>
-      <c r="BE145">
-        <v>1</v>
+      <c r="BB145" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC145" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD145" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE145" t="s">
+        <v>63</v>
       </c>
       <c r="BF145" t="s">
         <v>908</v>
@@ -28234,17 +27629,17 @@
       <c r="BA146" t="s">
         <v>83</v>
       </c>
-      <c r="BB146">
-        <v>1</v>
-      </c>
-      <c r="BC146">
-        <v>0</v>
-      </c>
-      <c r="BD146">
-        <v>0</v>
-      </c>
-      <c r="BE146">
-        <v>0</v>
+      <c r="BB146" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC146" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD146" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE146" t="s">
+        <v>61</v>
       </c>
       <c r="BF146" t="s">
         <v>913</v>
@@ -28380,17 +27775,17 @@
       <c r="BA147" t="s">
         <v>127</v>
       </c>
-      <c r="BB147">
-        <v>0</v>
-      </c>
-      <c r="BC147">
-        <v>0</v>
-      </c>
-      <c r="BD147">
-        <v>0</v>
-      </c>
-      <c r="BE147">
-        <v>1</v>
+      <c r="BB147" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC147" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD147" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE147" t="s">
+        <v>63</v>
       </c>
       <c r="BF147" t="s">
         <v>363</v>
@@ -28633,17 +28028,17 @@
       <c r="BA149" t="s">
         <v>83</v>
       </c>
-      <c r="BB149">
-        <v>1</v>
-      </c>
-      <c r="BC149">
-        <v>0</v>
-      </c>
-      <c r="BD149">
-        <v>0</v>
-      </c>
-      <c r="BE149">
-        <v>0</v>
+      <c r="BB149" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC149" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD149" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE149" t="s">
+        <v>61</v>
       </c>
       <c r="BF149" t="s">
         <v>929</v>
@@ -29041,17 +28436,17 @@
       <c r="BA152" t="s">
         <v>127</v>
       </c>
-      <c r="BB152">
-        <v>0</v>
-      </c>
-      <c r="BC152">
-        <v>0</v>
-      </c>
-      <c r="BD152">
-        <v>0</v>
-      </c>
-      <c r="BE152">
-        <v>1</v>
+      <c r="BB152" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC152" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD152" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE152" t="s">
+        <v>63</v>
       </c>
       <c r="BF152" t="s">
         <v>943</v>
@@ -29199,17 +28594,17 @@
       <c r="BA153" t="s">
         <v>127</v>
       </c>
-      <c r="BB153">
-        <v>0</v>
-      </c>
-      <c r="BC153">
-        <v>0</v>
-      </c>
-      <c r="BD153">
-        <v>0</v>
-      </c>
-      <c r="BE153">
-        <v>1</v>
+      <c r="BB153" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC153" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD153" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE153" t="s">
+        <v>63</v>
       </c>
       <c r="BF153" t="s">
         <v>950</v>
@@ -29482,17 +28877,17 @@
       <c r="BA155" t="s">
         <v>83</v>
       </c>
-      <c r="BB155">
-        <v>1</v>
-      </c>
-      <c r="BC155">
-        <v>0</v>
-      </c>
-      <c r="BD155">
-        <v>0</v>
-      </c>
-      <c r="BE155">
-        <v>0</v>
+      <c r="BB155" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC155" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD155" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE155" t="s">
+        <v>61</v>
       </c>
       <c r="BF155" t="s">
         <v>960</v>
@@ -29720,17 +29115,17 @@
       <c r="BA157" t="s">
         <v>83</v>
       </c>
-      <c r="BB157">
-        <v>1</v>
-      </c>
-      <c r="BC157">
-        <v>0</v>
-      </c>
-      <c r="BD157">
-        <v>0</v>
-      </c>
-      <c r="BE157">
-        <v>0</v>
+      <c r="BB157" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC157" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD157" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE157" t="s">
+        <v>61</v>
       </c>
       <c r="BF157" t="s">
         <v>968</v>
@@ -29863,17 +29258,17 @@
       <c r="BA158" t="s">
         <v>127</v>
       </c>
-      <c r="BB158">
-        <v>0</v>
-      </c>
-      <c r="BC158">
-        <v>0</v>
-      </c>
-      <c r="BD158">
-        <v>0</v>
-      </c>
-      <c r="BE158">
-        <v>1</v>
+      <c r="BB158" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC158" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD158" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE158" t="s">
+        <v>63</v>
       </c>
       <c r="BF158" t="s">
         <v>972</v>
@@ -30021,17 +29416,17 @@
       <c r="BA159" t="s">
         <v>83</v>
       </c>
-      <c r="BB159">
-        <v>1</v>
-      </c>
-      <c r="BC159">
-        <v>0</v>
-      </c>
-      <c r="BD159">
-        <v>0</v>
-      </c>
-      <c r="BE159">
-        <v>0</v>
+      <c r="BB159" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC159" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD159" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE159" t="s">
+        <v>61</v>
       </c>
       <c r="BF159" t="s">
         <v>313</v>
@@ -30179,17 +29574,17 @@
       <c r="BA160" t="s">
         <v>83</v>
       </c>
-      <c r="BB160">
-        <v>1</v>
-      </c>
-      <c r="BC160">
-        <v>0</v>
-      </c>
-      <c r="BD160">
-        <v>0</v>
-      </c>
-      <c r="BE160">
-        <v>0</v>
+      <c r="BB160" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC160" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD160" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE160" t="s">
+        <v>61</v>
       </c>
       <c r="BF160" t="s">
         <v>179</v>
@@ -30337,17 +29732,17 @@
       <c r="BA161" t="s">
         <v>127</v>
       </c>
-      <c r="BB161">
-        <v>0</v>
-      </c>
-      <c r="BC161">
-        <v>0</v>
-      </c>
-      <c r="BD161">
-        <v>0</v>
-      </c>
-      <c r="BE161">
-        <v>1</v>
+      <c r="BB161" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC161" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD161" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE161" t="s">
+        <v>63</v>
       </c>
       <c r="BF161" t="s">
         <v>989</v>
@@ -30480,17 +29875,17 @@
       <c r="BA162" t="s">
         <v>83</v>
       </c>
-      <c r="BB162">
-        <v>1</v>
-      </c>
-      <c r="BC162">
-        <v>0</v>
-      </c>
-      <c r="BD162">
-        <v>0</v>
-      </c>
-      <c r="BE162">
-        <v>0</v>
+      <c r="BB162" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC162" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD162" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE162" t="s">
+        <v>61</v>
       </c>
       <c r="BF162" t="s">
         <v>994</v>
@@ -30638,17 +30033,17 @@
       <c r="BA163" t="s">
         <v>184</v>
       </c>
-      <c r="BB163">
-        <v>0</v>
-      </c>
-      <c r="BC163">
-        <v>1</v>
-      </c>
-      <c r="BD163">
-        <v>0</v>
-      </c>
-      <c r="BE163">
-        <v>0</v>
+      <c r="BB163" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC163" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD163" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE163" t="s">
+        <v>61</v>
       </c>
       <c r="BF163" t="s">
         <v>89</v>
@@ -30784,17 +30179,17 @@
       <c r="BA164" t="s">
         <v>127</v>
       </c>
-      <c r="BB164">
-        <v>0</v>
-      </c>
-      <c r="BC164">
-        <v>0</v>
-      </c>
-      <c r="BD164">
-        <v>0</v>
-      </c>
-      <c r="BE164">
-        <v>1</v>
+      <c r="BB164" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC164" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD164" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE164" t="s">
+        <v>63</v>
       </c>
       <c r="BF164" t="s">
         <v>1005</v>
@@ -30927,17 +30322,17 @@
       <c r="BA165" t="s">
         <v>83</v>
       </c>
-      <c r="BB165">
-        <v>1</v>
-      </c>
-      <c r="BC165">
-        <v>0</v>
-      </c>
-      <c r="BD165">
-        <v>0</v>
-      </c>
-      <c r="BE165">
-        <v>0</v>
+      <c r="BB165" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC165" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD165" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE165" t="s">
+        <v>61</v>
       </c>
       <c r="BF165" t="s">
         <v>89</v>
@@ -31070,17 +30465,17 @@
       <c r="BA166" t="s">
         <v>83</v>
       </c>
-      <c r="BB166">
-        <v>1</v>
-      </c>
-      <c r="BC166">
-        <v>0</v>
-      </c>
-      <c r="BD166">
-        <v>0</v>
-      </c>
-      <c r="BE166">
-        <v>0</v>
+      <c r="BB166" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC166" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD166" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE166" t="s">
+        <v>61</v>
       </c>
       <c r="BF166" t="s">
         <v>89</v>
@@ -31228,17 +30623,17 @@
       <c r="BA167" t="s">
         <v>184</v>
       </c>
-      <c r="BB167">
-        <v>0</v>
-      </c>
-      <c r="BC167">
-        <v>1</v>
-      </c>
-      <c r="BD167">
-        <v>0</v>
-      </c>
-      <c r="BE167">
-        <v>0</v>
+      <c r="BB167" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC167" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD167" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE167" t="s">
+        <v>61</v>
       </c>
       <c r="BF167" t="s">
         <v>1018</v>
@@ -31374,17 +30769,17 @@
       <c r="BA168" t="s">
         <v>83</v>
       </c>
-      <c r="BB168">
-        <v>1</v>
-      </c>
-      <c r="BC168">
-        <v>0</v>
-      </c>
-      <c r="BD168">
-        <v>0</v>
-      </c>
-      <c r="BE168">
-        <v>0</v>
+      <c r="BB168" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC168" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD168" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE168" t="s">
+        <v>61</v>
       </c>
       <c r="BF168" t="s">
         <v>1024</v>
@@ -31612,17 +31007,17 @@
       <c r="BA170" t="s">
         <v>83</v>
       </c>
-      <c r="BB170">
-        <v>1</v>
-      </c>
-      <c r="BC170">
-        <v>0</v>
-      </c>
-      <c r="BD170">
-        <v>0</v>
-      </c>
-      <c r="BE170">
-        <v>0</v>
+      <c r="BB170" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC170" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD170" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE170" t="s">
+        <v>61</v>
       </c>
       <c r="BF170" t="s">
         <v>1033</v>
@@ -32112,17 +31507,17 @@
       <c r="BA174" t="s">
         <v>83</v>
       </c>
-      <c r="BB174">
-        <v>1</v>
-      </c>
-      <c r="BC174">
-        <v>0</v>
-      </c>
-      <c r="BD174">
-        <v>0</v>
-      </c>
-      <c r="BE174">
-        <v>0</v>
+      <c r="BB174" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC174" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD174" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE174" t="s">
+        <v>61</v>
       </c>
       <c r="BF174" t="s">
         <v>1052</v>
@@ -32270,17 +31665,17 @@
       <c r="BA175" t="s">
         <v>127</v>
       </c>
-      <c r="BB175">
-        <v>0</v>
-      </c>
-      <c r="BC175">
-        <v>0</v>
-      </c>
-      <c r="BD175">
-        <v>0</v>
-      </c>
-      <c r="BE175">
-        <v>1</v>
+      <c r="BB175" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC175" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD175" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE175" t="s">
+        <v>63</v>
       </c>
       <c r="BF175" t="s">
         <v>1059</v>
@@ -32431,17 +31826,17 @@
       <c r="BA176" t="s">
         <v>83</v>
       </c>
-      <c r="BB176">
-        <v>1</v>
-      </c>
-      <c r="BC176">
-        <v>0</v>
-      </c>
-      <c r="BD176">
-        <v>0</v>
-      </c>
-      <c r="BE176">
-        <v>0</v>
+      <c r="BB176" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC176" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD176" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE176" t="s">
+        <v>61</v>
       </c>
       <c r="BF176" t="s">
         <v>1068</v>
@@ -32574,17 +31969,17 @@
       <c r="BA177" t="s">
         <v>127</v>
       </c>
-      <c r="BB177">
-        <v>0</v>
-      </c>
-      <c r="BC177">
-        <v>0</v>
-      </c>
-      <c r="BD177">
-        <v>0</v>
-      </c>
-      <c r="BE177">
-        <v>1</v>
+      <c r="BB177" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC177" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD177" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE177" t="s">
+        <v>63</v>
       </c>
       <c r="BF177" t="s">
         <v>1073</v>
@@ -32717,17 +32112,17 @@
       <c r="BA178" t="s">
         <v>184</v>
       </c>
-      <c r="BB178">
-        <v>0</v>
-      </c>
-      <c r="BC178">
-        <v>1</v>
-      </c>
-      <c r="BD178">
-        <v>0</v>
-      </c>
-      <c r="BE178">
-        <v>0</v>
+      <c r="BB178" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC178" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD178" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE178" t="s">
+        <v>61</v>
       </c>
       <c r="BF178" t="s">
         <v>1077</v>
@@ -32860,17 +32255,17 @@
       <c r="BA179" t="s">
         <v>83</v>
       </c>
-      <c r="BB179">
-        <v>1</v>
-      </c>
-      <c r="BC179">
-        <v>0</v>
-      </c>
-      <c r="BD179">
-        <v>0</v>
-      </c>
-      <c r="BE179">
-        <v>0</v>
+      <c r="BB179" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC179" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD179" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE179" t="s">
+        <v>61</v>
       </c>
       <c r="BF179" t="s">
         <v>1081</v>
@@ -33110,17 +32505,17 @@
       <c r="BA181" t="s">
         <v>127</v>
       </c>
-      <c r="BB181">
-        <v>0</v>
-      </c>
-      <c r="BC181">
-        <v>0</v>
-      </c>
-      <c r="BD181">
-        <v>0</v>
-      </c>
-      <c r="BE181">
-        <v>1</v>
+      <c r="BB181" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC181" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD181" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE181" t="s">
+        <v>63</v>
       </c>
       <c r="BF181" t="s">
         <v>1092</v>
@@ -33253,17 +32648,17 @@
       <c r="BA182" t="s">
         <v>83</v>
       </c>
-      <c r="BB182">
-        <v>1</v>
-      </c>
-      <c r="BC182">
-        <v>0</v>
-      </c>
-      <c r="BD182">
-        <v>0</v>
-      </c>
-      <c r="BE182">
-        <v>0</v>
+      <c r="BB182" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC182" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD182" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE182" t="s">
+        <v>61</v>
       </c>
       <c r="BF182" t="s">
         <v>1098</v>
@@ -33396,17 +32791,17 @@
       <c r="BA183" t="s">
         <v>127</v>
       </c>
-      <c r="BB183">
-        <v>0</v>
-      </c>
-      <c r="BC183">
-        <v>0</v>
-      </c>
-      <c r="BD183">
-        <v>0</v>
-      </c>
-      <c r="BE183">
-        <v>1</v>
+      <c r="BB183" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC183" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD183" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE183" t="s">
+        <v>63</v>
       </c>
       <c r="BF183" t="s">
         <v>1104</v>
@@ -33554,17 +32949,17 @@
       <c r="BA184" t="s">
         <v>127</v>
       </c>
-      <c r="BB184">
-        <v>0</v>
-      </c>
-      <c r="BC184">
-        <v>0</v>
-      </c>
-      <c r="BD184">
-        <v>0</v>
-      </c>
-      <c r="BE184">
-        <v>1</v>
+      <c r="BB184" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC184" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD184" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE184" t="s">
+        <v>63</v>
       </c>
       <c r="BF184" t="s">
         <v>1109</v>
@@ -33697,17 +33092,17 @@
       <c r="BA185" t="s">
         <v>127</v>
       </c>
-      <c r="BB185">
-        <v>0</v>
-      </c>
-      <c r="BC185">
-        <v>0</v>
-      </c>
-      <c r="BD185">
-        <v>0</v>
-      </c>
-      <c r="BE185">
-        <v>1</v>
+      <c r="BB185" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC185" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD185" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE185" t="s">
+        <v>63</v>
       </c>
       <c r="BF185" t="s">
         <v>1113</v>
@@ -33840,17 +33235,17 @@
       <c r="BA186" t="s">
         <v>127</v>
       </c>
-      <c r="BB186">
-        <v>0</v>
-      </c>
-      <c r="BC186">
-        <v>0</v>
-      </c>
-      <c r="BD186">
-        <v>0</v>
-      </c>
-      <c r="BE186">
-        <v>1</v>
+      <c r="BB186" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC186" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD186" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE186" t="s">
+        <v>63</v>
       </c>
       <c r="BF186" t="s">
         <v>1117</v>
@@ -34144,17 +33539,17 @@
       <c r="BA188" t="s">
         <v>83</v>
       </c>
-      <c r="BB188">
-        <v>1</v>
-      </c>
-      <c r="BC188">
-        <v>0</v>
-      </c>
-      <c r="BD188">
-        <v>0</v>
-      </c>
-      <c r="BE188">
-        <v>0</v>
+      <c r="BB188" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC188" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD188" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE188" t="s">
+        <v>61</v>
       </c>
       <c r="BF188" t="s">
         <v>1132</v>
@@ -34287,17 +33682,17 @@
       <c r="BA189" t="s">
         <v>83</v>
       </c>
-      <c r="BB189">
-        <v>1</v>
-      </c>
-      <c r="BC189">
-        <v>0</v>
-      </c>
-      <c r="BD189">
-        <v>0</v>
-      </c>
-      <c r="BE189">
-        <v>0</v>
+      <c r="BB189" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC189" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD189" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE189" t="s">
+        <v>61</v>
       </c>
       <c r="BF189" t="s">
         <v>1137</v>
@@ -34442,17 +33837,17 @@
       <c r="BA190" t="s">
         <v>127</v>
       </c>
-      <c r="BB190">
-        <v>0</v>
-      </c>
-      <c r="BC190">
-        <v>0</v>
-      </c>
-      <c r="BD190">
-        <v>0</v>
-      </c>
-      <c r="BE190">
-        <v>1</v>
+      <c r="BB190" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC190" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD190" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE190" t="s">
+        <v>63</v>
       </c>
       <c r="BF190" t="s">
         <v>1142</v>
@@ -34722,17 +34117,17 @@
       <c r="BA192" t="s">
         <v>127</v>
       </c>
-      <c r="BB192">
-        <v>0</v>
-      </c>
-      <c r="BC192">
-        <v>0</v>
-      </c>
-      <c r="BD192">
-        <v>0</v>
-      </c>
-      <c r="BE192">
-        <v>1</v>
+      <c r="BB192" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC192" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD192" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE192" t="s">
+        <v>63</v>
       </c>
       <c r="BF192" t="s">
         <v>1151</v>
@@ -35263,17 +34658,17 @@
       <c r="BA197" t="s">
         <v>83</v>
       </c>
-      <c r="BB197">
-        <v>1</v>
-      </c>
-      <c r="BC197">
-        <v>0</v>
-      </c>
-      <c r="BD197">
-        <v>0</v>
-      </c>
-      <c r="BE197">
-        <v>0</v>
+      <c r="BB197" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC197" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD197" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE197" t="s">
+        <v>61</v>
       </c>
       <c r="BF197" t="s">
         <v>1170</v>
@@ -35546,17 +34941,17 @@
       <c r="BA199" t="s">
         <v>83</v>
       </c>
-      <c r="BB199">
-        <v>1</v>
-      </c>
-      <c r="BC199">
-        <v>0</v>
-      </c>
-      <c r="BD199">
-        <v>0</v>
-      </c>
-      <c r="BE199">
-        <v>0</v>
+      <c r="BB199" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC199" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD199" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE199" t="s">
+        <v>61</v>
       </c>
       <c r="BF199" t="s">
         <v>1181</v>
@@ -35784,17 +35179,17 @@
       <c r="BA201" t="s">
         <v>83</v>
       </c>
-      <c r="BB201">
-        <v>1</v>
-      </c>
-      <c r="BC201">
-        <v>0</v>
-      </c>
-      <c r="BD201">
-        <v>0</v>
-      </c>
-      <c r="BE201">
-        <v>0</v>
+      <c r="BB201" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC201" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD201" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE201" t="s">
+        <v>61</v>
       </c>
       <c r="BF201" t="s">
         <v>1192</v>
@@ -35939,17 +35334,17 @@
       <c r="BA202" t="s">
         <v>127</v>
       </c>
-      <c r="BB202">
-        <v>0</v>
-      </c>
-      <c r="BC202">
-        <v>0</v>
-      </c>
-      <c r="BD202">
-        <v>0</v>
-      </c>
-      <c r="BE202">
-        <v>1</v>
+      <c r="BB202" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC202" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD202" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE202" t="s">
+        <v>63</v>
       </c>
       <c r="BF202" t="s">
         <v>1198</v>
@@ -36082,17 +35477,17 @@
       <c r="BA203" t="s">
         <v>83</v>
       </c>
-      <c r="BB203">
-        <v>1</v>
-      </c>
-      <c r="BC203">
-        <v>0</v>
-      </c>
-      <c r="BD203">
-        <v>0</v>
-      </c>
-      <c r="BE203">
-        <v>0</v>
+      <c r="BB203" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC203" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD203" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE203" t="s">
+        <v>61</v>
       </c>
       <c r="BF203" t="s">
         <v>1203</v>
@@ -36225,17 +35620,17 @@
       <c r="BA204" t="s">
         <v>83</v>
       </c>
-      <c r="BB204">
-        <v>1</v>
-      </c>
-      <c r="BC204">
-        <v>0</v>
-      </c>
-      <c r="BD204">
-        <v>0</v>
-      </c>
-      <c r="BE204">
-        <v>0</v>
+      <c r="BB204" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC204" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD204" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE204" t="s">
+        <v>61</v>
       </c>
       <c r="BF204" t="s">
         <v>1207</v>
@@ -36380,17 +35775,17 @@
       <c r="BA205" t="s">
         <v>83</v>
       </c>
-      <c r="BB205">
-        <v>1</v>
-      </c>
-      <c r="BC205">
-        <v>0</v>
-      </c>
-      <c r="BD205">
-        <v>0</v>
-      </c>
-      <c r="BE205">
-        <v>0</v>
+      <c r="BB205" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC205" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD205" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE205" t="s">
+        <v>61</v>
       </c>
       <c r="BF205" t="s">
         <v>1212</v>
@@ -36523,17 +35918,17 @@
       <c r="BA206" t="s">
         <v>83</v>
       </c>
-      <c r="BB206">
-        <v>1</v>
-      </c>
-      <c r="BC206">
-        <v>0</v>
-      </c>
-      <c r="BD206">
-        <v>0</v>
-      </c>
-      <c r="BE206">
-        <v>0</v>
+      <c r="BB206" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC206" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD206" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE206" t="s">
+        <v>61</v>
       </c>
       <c r="BF206" t="s">
         <v>1215</v>
@@ -36984,17 +36379,17 @@
       <c r="BA210" t="s">
         <v>83</v>
       </c>
-      <c r="BB210">
-        <v>1</v>
-      </c>
-      <c r="BC210">
-        <v>0</v>
-      </c>
-      <c r="BD210">
-        <v>0</v>
-      </c>
-      <c r="BE210">
-        <v>0</v>
+      <c r="BB210" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC210" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD210" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE210" t="s">
+        <v>61</v>
       </c>
       <c r="BF210" t="s">
         <v>1234</v>
@@ -37133,17 +36528,17 @@
       <c r="BA211" t="s">
         <v>127</v>
       </c>
-      <c r="BB211">
-        <v>0</v>
-      </c>
-      <c r="BC211">
-        <v>0</v>
-      </c>
-      <c r="BD211">
-        <v>0</v>
-      </c>
-      <c r="BE211">
-        <v>1</v>
+      <c r="BB211" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC211" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD211" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE211" t="s">
+        <v>63</v>
       </c>
       <c r="BF211" t="s">
         <v>1240</v>
@@ -37288,17 +36683,17 @@
       <c r="BA212" t="s">
         <v>127</v>
       </c>
-      <c r="BB212">
-        <v>0</v>
-      </c>
-      <c r="BC212">
-        <v>0</v>
-      </c>
-      <c r="BD212">
-        <v>0</v>
-      </c>
-      <c r="BE212">
-        <v>1</v>
+      <c r="BB212" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC212" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD212" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE212" t="s">
+        <v>63</v>
       </c>
       <c r="BF212" t="s">
         <v>1246</v>
@@ -37788,17 +37183,17 @@
       <c r="BA216" t="s">
         <v>83</v>
       </c>
-      <c r="BB216">
-        <v>1</v>
-      </c>
-      <c r="BC216">
-        <v>0</v>
-      </c>
-      <c r="BD216">
-        <v>0</v>
-      </c>
-      <c r="BE216">
-        <v>0</v>
+      <c r="BB216" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC216" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD216" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE216" t="s">
+        <v>61</v>
       </c>
       <c r="BF216" t="s">
         <v>1267</v>
@@ -38026,17 +37421,17 @@
       <c r="BA218" t="s">
         <v>83</v>
       </c>
-      <c r="BB218">
-        <v>1</v>
-      </c>
-      <c r="BC218">
-        <v>0</v>
-      </c>
-      <c r="BD218">
-        <v>0</v>
-      </c>
-      <c r="BE218">
-        <v>0</v>
+      <c r="BB218" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC218" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD218" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE218" t="s">
+        <v>61</v>
       </c>
       <c r="BF218" t="s">
         <v>1278</v>
@@ -38172,17 +37567,17 @@
       <c r="BA219" t="s">
         <v>83</v>
       </c>
-      <c r="BB219">
-        <v>1</v>
-      </c>
-      <c r="BC219">
-        <v>0</v>
-      </c>
-      <c r="BD219">
-        <v>0</v>
-      </c>
-      <c r="BE219">
-        <v>0</v>
+      <c r="BB219" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC219" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD219" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE219" t="s">
+        <v>61</v>
       </c>
       <c r="BF219" t="s">
         <v>1281</v>
@@ -38550,17 +37945,17 @@
       <c r="BA222" t="s">
         <v>184</v>
       </c>
-      <c r="BB222">
-        <v>0</v>
-      </c>
-      <c r="BC222">
-        <v>1</v>
-      </c>
-      <c r="BD222">
-        <v>0</v>
-      </c>
-      <c r="BE222">
-        <v>0</v>
+      <c r="BB222" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC222" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD222" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE222" t="s">
+        <v>61</v>
       </c>
       <c r="BF222" t="s">
         <v>1293</v>
@@ -38693,17 +38088,17 @@
       <c r="BA223" t="s">
         <v>127</v>
       </c>
-      <c r="BB223">
-        <v>0</v>
-      </c>
-      <c r="BC223">
-        <v>0</v>
-      </c>
-      <c r="BD223">
-        <v>0</v>
-      </c>
-      <c r="BE223">
-        <v>1</v>
+      <c r="BB223" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC223" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD223" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE223" t="s">
+        <v>63</v>
       </c>
       <c r="BF223" t="s">
         <v>1298</v>
@@ -38836,17 +38231,17 @@
       <c r="BA224" t="s">
         <v>184</v>
       </c>
-      <c r="BB224">
-        <v>0</v>
-      </c>
-      <c r="BC224">
-        <v>1</v>
-      </c>
-      <c r="BD224">
-        <v>0</v>
-      </c>
-      <c r="BE224">
-        <v>0</v>
+      <c r="BB224" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC224" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD224" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE224" t="s">
+        <v>61</v>
       </c>
       <c r="BF224" t="s">
         <v>1303</v>
@@ -38991,17 +38386,17 @@
       <c r="BA225" t="s">
         <v>127</v>
       </c>
-      <c r="BB225">
-        <v>0</v>
-      </c>
-      <c r="BC225">
-        <v>0</v>
-      </c>
-      <c r="BD225">
-        <v>0</v>
-      </c>
-      <c r="BE225">
-        <v>1</v>
+      <c r="BB225" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC225" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD225" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE225" t="s">
+        <v>63</v>
       </c>
       <c r="BF225" t="s">
         <v>1308</v>
@@ -39384,17 +38779,17 @@
       <c r="BA228" t="s">
         <v>83</v>
       </c>
-      <c r="BB228">
-        <v>1</v>
-      </c>
-      <c r="BC228">
-        <v>0</v>
-      </c>
-      <c r="BD228">
-        <v>0</v>
-      </c>
-      <c r="BE228">
-        <v>0</v>
+      <c r="BB228" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC228" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD228" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE228" t="s">
+        <v>61</v>
       </c>
       <c r="BF228" t="s">
         <v>1328</v>
@@ -39527,17 +38922,17 @@
       <c r="BA229" t="s">
         <v>83</v>
       </c>
-      <c r="BB229">
-        <v>1</v>
-      </c>
-      <c r="BC229">
-        <v>0</v>
-      </c>
-      <c r="BD229">
-        <v>0</v>
-      </c>
-      <c r="BE229">
-        <v>0</v>
+      <c r="BB229" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC229" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD229" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE229" t="s">
+        <v>61</v>
       </c>
       <c r="BF229" t="s">
         <v>1333</v>
@@ -39673,17 +39068,17 @@
       <c r="BA230" t="s">
         <v>83</v>
       </c>
-      <c r="BB230">
-        <v>1</v>
-      </c>
-      <c r="BC230">
-        <v>0</v>
-      </c>
-      <c r="BD230">
-        <v>0</v>
-      </c>
-      <c r="BE230">
-        <v>0</v>
+      <c r="BB230" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC230" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD230" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE230" t="s">
+        <v>61</v>
       </c>
       <c r="BF230" t="s">
         <v>1338</v>
@@ -39816,17 +39211,17 @@
       <c r="BA231" t="s">
         <v>83</v>
       </c>
-      <c r="BB231">
-        <v>1</v>
-      </c>
-      <c r="BC231">
-        <v>0</v>
-      </c>
-      <c r="BD231">
-        <v>0</v>
-      </c>
-      <c r="BE231">
-        <v>0</v>
+      <c r="BB231" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC231" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD231" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE231" t="s">
+        <v>61</v>
       </c>
       <c r="BF231" t="s">
         <v>543</v>
@@ -39962,17 +39357,17 @@
       <c r="BA232" t="s">
         <v>83</v>
       </c>
-      <c r="BB232">
-        <v>1</v>
-      </c>
-      <c r="BC232">
-        <v>0</v>
-      </c>
-      <c r="BD232">
-        <v>0</v>
-      </c>
-      <c r="BE232">
-        <v>0</v>
+      <c r="BB232" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC232" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD232" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE232" t="s">
+        <v>61</v>
       </c>
       <c r="BF232" t="s">
         <v>1345</v>
@@ -40108,17 +39503,17 @@
       <c r="BA233" t="s">
         <v>83</v>
       </c>
-      <c r="BB233">
-        <v>1</v>
-      </c>
-      <c r="BC233">
-        <v>0</v>
-      </c>
-      <c r="BD233">
-        <v>0</v>
-      </c>
-      <c r="BE233">
-        <v>0</v>
+      <c r="BB233" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC233" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD233" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE233" t="s">
+        <v>61</v>
       </c>
       <c r="BF233" t="s">
         <v>1350</v>
@@ -40251,17 +39646,17 @@
       <c r="BA234" t="s">
         <v>83</v>
       </c>
-      <c r="BB234">
-        <v>1</v>
-      </c>
-      <c r="BC234">
-        <v>0</v>
-      </c>
-      <c r="BD234">
-        <v>0</v>
-      </c>
-      <c r="BE234">
-        <v>0</v>
+      <c r="BB234" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC234" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD234" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE234" t="s">
+        <v>61</v>
       </c>
       <c r="BF234" t="s">
         <v>1355</v>
@@ -40477,17 +39872,17 @@
       <c r="BA236" t="s">
         <v>83</v>
       </c>
-      <c r="BB236">
-        <v>1</v>
-      </c>
-      <c r="BC236">
-        <v>0</v>
-      </c>
-      <c r="BD236">
-        <v>0</v>
-      </c>
-      <c r="BE236">
-        <v>0</v>
+      <c r="BB236" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC236" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD236" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE236" t="s">
+        <v>61</v>
       </c>
       <c r="BF236" t="s">
         <v>1365</v>
@@ -40715,17 +40110,17 @@
       <c r="BA238" t="s">
         <v>127</v>
       </c>
-      <c r="BB238">
-        <v>0</v>
-      </c>
-      <c r="BC238">
-        <v>0</v>
-      </c>
-      <c r="BD238">
-        <v>0</v>
-      </c>
-      <c r="BE238">
-        <v>1</v>
+      <c r="BB238" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC238" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD238" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE238" t="s">
+        <v>63</v>
       </c>
       <c r="BF238" t="s">
         <v>1376</v>
@@ -41021,17 +40416,17 @@
       <c r="BA241" t="s">
         <v>245</v>
       </c>
-      <c r="BB241">
-        <v>1</v>
-      </c>
-      <c r="BC241">
-        <v>1</v>
-      </c>
-      <c r="BD241">
-        <v>1</v>
-      </c>
-      <c r="BE241">
-        <v>0</v>
+      <c r="BB241" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC241" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD241" t="s">
+        <v>63</v>
+      </c>
+      <c r="BE241" t="s">
+        <v>61</v>
       </c>
       <c r="BF241" t="s">
         <v>1391</v>
@@ -41164,17 +40559,17 @@
       <c r="BA242" t="s">
         <v>83</v>
       </c>
-      <c r="BB242">
-        <v>1</v>
-      </c>
-      <c r="BC242">
-        <v>0</v>
-      </c>
-      <c r="BD242">
-        <v>0</v>
-      </c>
-      <c r="BE242">
-        <v>0</v>
+      <c r="BB242" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC242" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD242" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE242" t="s">
+        <v>61</v>
       </c>
       <c r="BF242" t="s">
         <v>1396</v>
@@ -41319,17 +40714,17 @@
       <c r="BA243" t="s">
         <v>83</v>
       </c>
-      <c r="BB243">
-        <v>1</v>
-      </c>
-      <c r="BC243">
-        <v>0</v>
-      </c>
-      <c r="BD243">
-        <v>0</v>
-      </c>
-      <c r="BE243">
-        <v>0</v>
+      <c r="BB243" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC243" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD243" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE243" t="s">
+        <v>61</v>
       </c>
       <c r="BF243" t="s">
         <v>1402</v>
@@ -41465,17 +40860,17 @@
       <c r="BA244" t="s">
         <v>83</v>
       </c>
-      <c r="BB244">
-        <v>1</v>
-      </c>
-      <c r="BC244">
-        <v>0</v>
-      </c>
-      <c r="BD244">
-        <v>0</v>
-      </c>
-      <c r="BE244">
-        <v>0</v>
+      <c r="BB244" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC244" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD244" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE244" t="s">
+        <v>61</v>
       </c>
       <c r="BF244" t="s">
         <v>1409</v>
@@ -41578,17 +40973,17 @@
       <c r="BA245" t="s">
         <v>245</v>
       </c>
-      <c r="BB245">
-        <v>1</v>
-      </c>
-      <c r="BC245">
-        <v>1</v>
-      </c>
-      <c r="BD245">
-        <v>1</v>
-      </c>
-      <c r="BE245">
-        <v>0</v>
+      <c r="BB245" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC245" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD245" t="s">
+        <v>63</v>
+      </c>
+      <c r="BE245" t="s">
+        <v>61</v>
       </c>
       <c r="BF245" t="s">
         <v>1415</v>
@@ -41721,17 +41116,17 @@
       <c r="BA246" t="s">
         <v>83</v>
       </c>
-      <c r="BB246">
-        <v>1</v>
-      </c>
-      <c r="BC246">
-        <v>0</v>
-      </c>
-      <c r="BD246">
-        <v>0</v>
-      </c>
-      <c r="BE246">
-        <v>0</v>
+      <c r="BB246" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC246" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD246" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE246" t="s">
+        <v>61</v>
       </c>
       <c r="BF246" t="s">
         <v>1420</v>
@@ -41953,9 +41348,6 @@
       <c r="AX248" t="s">
         <v>61</v>
       </c>
-      <c r="BF248" t="s">
-        <v>1426</v>
-      </c>
       <c r="BG248" t="s">
         <v>499</v>
       </c>
@@ -42054,17 +41446,17 @@
       <c r="BA249" t="s">
         <v>127</v>
       </c>
-      <c r="BB249">
-        <v>0</v>
-      </c>
-      <c r="BC249">
-        <v>0</v>
-      </c>
-      <c r="BD249">
-        <v>0</v>
-      </c>
-      <c r="BE249">
-        <v>1</v>
+      <c r="BB249" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC249" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD249" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE249" t="s">
+        <v>63</v>
       </c>
       <c r="BF249" t="s">
         <v>1432</v>
@@ -42197,17 +41589,17 @@
       <c r="BA250" t="s">
         <v>83</v>
       </c>
-      <c r="BB250">
-        <v>1</v>
-      </c>
-      <c r="BC250">
-        <v>0</v>
-      </c>
-      <c r="BD250">
-        <v>0</v>
-      </c>
-      <c r="BE250">
-        <v>0</v>
+      <c r="BB250" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC250" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD250" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE250" t="s">
+        <v>61</v>
       </c>
       <c r="BF250" t="s">
         <v>1437</v>
@@ -42477,17 +41869,17 @@
       <c r="BA252" t="s">
         <v>127</v>
       </c>
-      <c r="BB252">
-        <v>0</v>
-      </c>
-      <c r="BC252">
-        <v>0</v>
-      </c>
-      <c r="BD252">
-        <v>0</v>
-      </c>
-      <c r="BE252">
-        <v>1</v>
+      <c r="BB252" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC252" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD252" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE252" t="s">
+        <v>63</v>
       </c>
       <c r="BF252" t="s">
         <v>1445</v>
@@ -42727,17 +42119,17 @@
       <c r="BA254" t="s">
         <v>83</v>
       </c>
-      <c r="BB254">
-        <v>1</v>
-      </c>
-      <c r="BC254">
-        <v>0</v>
-      </c>
-      <c r="BD254">
-        <v>0</v>
-      </c>
-      <c r="BE254">
-        <v>0</v>
+      <c r="BB254" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC254" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD254" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE254" t="s">
+        <v>61</v>
       </c>
       <c r="BF254" t="s">
         <v>313</v>
@@ -42870,17 +42262,17 @@
       <c r="BA255" t="s">
         <v>83</v>
       </c>
-      <c r="BB255">
-        <v>1</v>
-      </c>
-      <c r="BC255">
-        <v>0</v>
-      </c>
-      <c r="BD255">
-        <v>0</v>
-      </c>
-      <c r="BE255">
-        <v>0</v>
+      <c r="BB255" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC255" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD255" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE255" t="s">
+        <v>61</v>
       </c>
       <c r="BF255" t="s">
         <v>1458</v>
@@ -43031,17 +42423,17 @@
       <c r="BA256" t="s">
         <v>127</v>
       </c>
-      <c r="BB256">
-        <v>0</v>
-      </c>
-      <c r="BC256">
-        <v>0</v>
-      </c>
-      <c r="BD256">
-        <v>0</v>
-      </c>
-      <c r="BE256">
-        <v>1</v>
+      <c r="BB256" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC256" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD256" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE256" t="s">
+        <v>63</v>
       </c>
       <c r="BF256" t="s">
         <v>1466</v>
@@ -43174,17 +42566,17 @@
       <c r="BA257" t="s">
         <v>127</v>
       </c>
-      <c r="BB257">
-        <v>0</v>
-      </c>
-      <c r="BC257">
-        <v>0</v>
-      </c>
-      <c r="BD257">
-        <v>0</v>
-      </c>
-      <c r="BE257">
-        <v>1</v>
+      <c r="BB257" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC257" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD257" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE257" t="s">
+        <v>63</v>
       </c>
       <c r="BF257" t="s">
         <v>192</v>
@@ -43418,17 +42810,17 @@
       <c r="BA259" t="s">
         <v>83</v>
       </c>
-      <c r="BB259">
-        <v>1</v>
-      </c>
-      <c r="BC259">
-        <v>0</v>
-      </c>
-      <c r="BD259">
-        <v>0</v>
-      </c>
-      <c r="BE259">
-        <v>0</v>
+      <c r="BB259" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC259" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD259" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE259" t="s">
+        <v>61</v>
       </c>
       <c r="BF259" t="s">
         <v>468</v>
@@ -43739,17 +43131,17 @@
       <c r="BA262" t="s">
         <v>83</v>
       </c>
-      <c r="BB262">
-        <v>1</v>
-      </c>
-      <c r="BC262">
-        <v>0</v>
-      </c>
-      <c r="BD262">
-        <v>0</v>
-      </c>
-      <c r="BE262">
-        <v>0</v>
+      <c r="BB262" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC262" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD262" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE262" t="s">
+        <v>61</v>
       </c>
       <c r="BF262" t="s">
         <v>307</v>
@@ -43882,17 +43274,17 @@
       <c r="BA263" t="s">
         <v>127</v>
       </c>
-      <c r="BB263">
-        <v>0</v>
-      </c>
-      <c r="BC263">
-        <v>0</v>
-      </c>
-      <c r="BD263">
-        <v>0</v>
-      </c>
-      <c r="BE263">
-        <v>1</v>
+      <c r="BB263" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC263" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD263" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE263" t="s">
+        <v>63</v>
       </c>
       <c r="BF263" t="s">
         <v>1499</v>
@@ -44037,17 +43429,17 @@
       <c r="BA264" t="s">
         <v>83</v>
       </c>
-      <c r="BB264">
-        <v>1</v>
-      </c>
-      <c r="BC264">
-        <v>0</v>
-      </c>
-      <c r="BD264">
-        <v>0</v>
-      </c>
-      <c r="BE264">
-        <v>0</v>
+      <c r="BB264" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC264" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD264" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE264" t="s">
+        <v>61</v>
       </c>
       <c r="BF264" t="s">
         <v>313</v>
@@ -44180,17 +43572,17 @@
       <c r="BA265" t="s">
         <v>83</v>
       </c>
-      <c r="BB265">
-        <v>1</v>
-      </c>
-      <c r="BC265">
-        <v>0</v>
-      </c>
-      <c r="BD265">
-        <v>0</v>
-      </c>
-      <c r="BE265">
-        <v>0</v>
+      <c r="BB265" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC265" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD265" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE265" t="s">
+        <v>61</v>
       </c>
       <c r="BF265" t="s">
         <v>521</v>
@@ -44418,17 +43810,17 @@
       <c r="BA267" t="s">
         <v>83</v>
       </c>
-      <c r="BB267">
-        <v>1</v>
-      </c>
-      <c r="BC267">
-        <v>0</v>
-      </c>
-      <c r="BD267">
-        <v>0</v>
-      </c>
-      <c r="BE267">
-        <v>0</v>
+      <c r="BB267" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC267" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD267" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE267" t="s">
+        <v>61</v>
       </c>
       <c r="BF267" t="s">
         <v>89</v>
@@ -44579,17 +43971,17 @@
       <c r="BA268" t="s">
         <v>127</v>
       </c>
-      <c r="BB268">
-        <v>0</v>
-      </c>
-      <c r="BC268">
-        <v>0</v>
-      </c>
-      <c r="BD268">
-        <v>0</v>
-      </c>
-      <c r="BE268">
-        <v>1</v>
+      <c r="BB268" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC268" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD268" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE268" t="s">
+        <v>63</v>
       </c>
       <c r="BF268" t="s">
         <v>1524</v>
@@ -44850,17 +44242,17 @@
       <c r="BA270" t="s">
         <v>83</v>
       </c>
-      <c r="BB270">
-        <v>1</v>
-      </c>
-      <c r="BC270">
-        <v>0</v>
-      </c>
-      <c r="BD270">
-        <v>0</v>
-      </c>
-      <c r="BE270">
-        <v>0</v>
+      <c r="BB270" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC270" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD270" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE270" t="s">
+        <v>61</v>
       </c>
       <c r="BF270" t="s">
         <v>1533</v>
@@ -44999,17 +44391,17 @@
       <c r="BA271" t="s">
         <v>83</v>
       </c>
-      <c r="BB271">
-        <v>1</v>
-      </c>
-      <c r="BC271">
-        <v>0</v>
-      </c>
-      <c r="BD271">
-        <v>0</v>
-      </c>
-      <c r="BE271">
-        <v>0</v>
+      <c r="BB271" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC271" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD271" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE271" t="s">
+        <v>61</v>
       </c>
       <c r="BF271" t="s">
         <v>1540</v>
@@ -45142,17 +44534,17 @@
       <c r="BA272" t="s">
         <v>83</v>
       </c>
-      <c r="BB272">
-        <v>1</v>
-      </c>
-      <c r="BC272">
-        <v>0</v>
-      </c>
-      <c r="BD272">
-        <v>0</v>
-      </c>
-      <c r="BE272">
-        <v>0</v>
+      <c r="BB272" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC272" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD272" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE272" t="s">
+        <v>61</v>
       </c>
       <c r="BF272" t="s">
         <v>1545</v>
@@ -45285,17 +44677,17 @@
       <c r="BA273" t="s">
         <v>83</v>
       </c>
-      <c r="BB273">
-        <v>1</v>
-      </c>
-      <c r="BC273">
-        <v>0</v>
-      </c>
-      <c r="BD273">
-        <v>0</v>
-      </c>
-      <c r="BE273">
-        <v>0</v>
+      <c r="BB273" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC273" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD273" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE273" t="s">
+        <v>61</v>
       </c>
       <c r="BF273" t="s">
         <v>1550</v>
@@ -45428,17 +44820,17 @@
       <c r="BA274" t="s">
         <v>83</v>
       </c>
-      <c r="BB274">
-        <v>1</v>
-      </c>
-      <c r="BC274">
-        <v>0</v>
-      </c>
-      <c r="BD274">
-        <v>0</v>
-      </c>
-      <c r="BE274">
-        <v>0</v>
+      <c r="BB274" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC274" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD274" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE274" t="s">
+        <v>61</v>
       </c>
       <c r="BF274" t="s">
         <v>1555</v>
@@ -45541,17 +44933,17 @@
       <c r="BA275" t="s">
         <v>83</v>
       </c>
-      <c r="BB275">
-        <v>1</v>
-      </c>
-      <c r="BC275">
-        <v>0</v>
-      </c>
-      <c r="BD275">
-        <v>0</v>
-      </c>
-      <c r="BE275">
-        <v>0</v>
+      <c r="BB275" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC275" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD275" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE275" t="s">
+        <v>61</v>
       </c>
       <c r="BF275" t="s">
         <v>375</v>
@@ -45684,17 +45076,17 @@
       <c r="BA276" t="s">
         <v>83</v>
       </c>
-      <c r="BB276">
-        <v>1</v>
-      </c>
-      <c r="BC276">
-        <v>0</v>
-      </c>
-      <c r="BD276">
-        <v>0</v>
-      </c>
-      <c r="BE276">
-        <v>0</v>
+      <c r="BB276" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC276" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD276" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE276" t="s">
+        <v>61</v>
       </c>
       <c r="BF276" t="s">
         <v>1564</v>
@@ -45910,17 +45302,17 @@
       <c r="BA278" t="s">
         <v>127</v>
       </c>
-      <c r="BB278">
-        <v>0</v>
-      </c>
-      <c r="BC278">
-        <v>0</v>
-      </c>
-      <c r="BD278">
-        <v>0</v>
-      </c>
-      <c r="BE278">
-        <v>1</v>
+      <c r="BB278" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC278" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD278" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE278" t="s">
+        <v>63</v>
       </c>
       <c r="BF278" t="s">
         <v>1575</v>
@@ -46053,17 +45445,17 @@
       <c r="BA279" t="s">
         <v>83</v>
       </c>
-      <c r="BB279">
-        <v>1</v>
-      </c>
-      <c r="BC279">
-        <v>0</v>
-      </c>
-      <c r="BD279">
-        <v>0</v>
-      </c>
-      <c r="BE279">
-        <v>0</v>
+      <c r="BB279" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC279" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD279" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE279" t="s">
+        <v>61</v>
       </c>
       <c r="BF279" t="s">
         <v>1578</v>
@@ -46279,17 +45671,17 @@
       <c r="BA281" t="s">
         <v>83</v>
       </c>
-      <c r="BB281">
-        <v>1</v>
-      </c>
-      <c r="BC281">
-        <v>0</v>
-      </c>
-      <c r="BD281">
-        <v>0</v>
-      </c>
-      <c r="BE281">
-        <v>0</v>
+      <c r="BB281" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC281" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD281" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE281" t="s">
+        <v>61</v>
       </c>
       <c r="BF281" t="s">
         <v>1588</v>
@@ -46547,17 +45939,17 @@
       <c r="BA283" t="s">
         <v>127</v>
       </c>
-      <c r="BB283">
-        <v>0</v>
-      </c>
-      <c r="BC283">
-        <v>0</v>
-      </c>
-      <c r="BD283">
-        <v>0</v>
-      </c>
-      <c r="BE283">
-        <v>1</v>
+      <c r="BB283" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC283" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD283" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE283" t="s">
+        <v>63</v>
       </c>
       <c r="BF283" t="s">
         <v>128</v>
@@ -46815,17 +46207,17 @@
       <c r="BA285" t="s">
         <v>83</v>
       </c>
-      <c r="BB285">
-        <v>1</v>
-      </c>
-      <c r="BC285">
-        <v>0</v>
-      </c>
-      <c r="BD285">
-        <v>0</v>
-      </c>
-      <c r="BE285">
-        <v>0</v>
+      <c r="BB285" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC285" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD285" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE285" t="s">
+        <v>61</v>
       </c>
       <c r="BF285" t="s">
         <v>1603</v>
@@ -46958,17 +46350,17 @@
       <c r="BA286" t="s">
         <v>184</v>
       </c>
-      <c r="BB286">
-        <v>0</v>
-      </c>
-      <c r="BC286">
-        <v>1</v>
-      </c>
-      <c r="BD286">
-        <v>0</v>
-      </c>
-      <c r="BE286">
-        <v>0</v>
+      <c r="BB286" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC286" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD286" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE286" t="s">
+        <v>61</v>
       </c>
       <c r="BF286" t="s">
         <v>1609</v>
@@ -47640,17 +47032,17 @@
       <c r="BA291" t="s">
         <v>1635</v>
       </c>
-      <c r="BB291">
-        <v>0</v>
-      </c>
-      <c r="BC291">
-        <v>0</v>
-      </c>
-      <c r="BD291">
-        <v>1</v>
-      </c>
-      <c r="BE291">
-        <v>0</v>
+      <c r="BB291" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC291" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD291" t="s">
+        <v>63</v>
+      </c>
+      <c r="BE291" t="s">
+        <v>61</v>
       </c>
       <c r="BF291" t="s">
         <v>1636</v>
@@ -47878,17 +47270,17 @@
       <c r="BA293" t="s">
         <v>127</v>
       </c>
-      <c r="BB293">
-        <v>0</v>
-      </c>
-      <c r="BC293">
-        <v>0</v>
-      </c>
-      <c r="BD293">
-        <v>0</v>
-      </c>
-      <c r="BE293">
-        <v>1</v>
+      <c r="BB293" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC293" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD293" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE293" t="s">
+        <v>63</v>
       </c>
       <c r="BF293" t="s">
         <v>1647</v>
@@ -48158,17 +47550,17 @@
       <c r="BA295" t="s">
         <v>83</v>
       </c>
-      <c r="BB295">
-        <v>1</v>
-      </c>
-      <c r="BC295">
-        <v>0</v>
-      </c>
-      <c r="BD295">
-        <v>0</v>
-      </c>
-      <c r="BE295">
-        <v>0</v>
+      <c r="BB295" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC295" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD295" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE295" t="s">
+        <v>61</v>
       </c>
       <c r="BF295" t="s">
         <v>1657</v>
@@ -48301,17 +47693,17 @@
       <c r="BA296" t="s">
         <v>127</v>
       </c>
-      <c r="BB296">
-        <v>0</v>
-      </c>
-      <c r="BC296">
-        <v>0</v>
-      </c>
-      <c r="BD296">
-        <v>0</v>
-      </c>
-      <c r="BE296">
-        <v>1</v>
+      <c r="BB296" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC296" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD296" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE296" t="s">
+        <v>63</v>
       </c>
       <c r="BF296" t="s">
         <v>1662</v>
@@ -48402,17 +47794,17 @@
       <c r="BA297" t="s">
         <v>83</v>
       </c>
-      <c r="BB297">
-        <v>1</v>
-      </c>
-      <c r="BC297">
-        <v>0</v>
-      </c>
-      <c r="BD297">
-        <v>0</v>
-      </c>
-      <c r="BE297">
-        <v>0</v>
+      <c r="BB297" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC297" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD297" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE297" t="s">
+        <v>61</v>
       </c>
       <c r="BF297" t="s">
         <v>1667</v>
@@ -48560,17 +47952,17 @@
       <c r="BA298" t="s">
         <v>83</v>
       </c>
-      <c r="BB298">
-        <v>1</v>
-      </c>
-      <c r="BC298">
-        <v>0</v>
-      </c>
-      <c r="BD298">
-        <v>0</v>
-      </c>
-      <c r="BE298">
-        <v>0</v>
+      <c r="BB298" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC298" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD298" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE298" t="s">
+        <v>61</v>
       </c>
       <c r="BF298" t="s">
         <v>1674</v>
@@ -48801,17 +48193,17 @@
       <c r="BA300" t="s">
         <v>83</v>
       </c>
-      <c r="BB300">
-        <v>1</v>
-      </c>
-      <c r="BC300">
-        <v>0</v>
-      </c>
-      <c r="BD300">
-        <v>0</v>
-      </c>
-      <c r="BE300">
-        <v>0</v>
+      <c r="BB300" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC300" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD300" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE300" t="s">
+        <v>61</v>
       </c>
       <c r="BF300" t="s">
         <v>1683</v>
@@ -48914,17 +48306,17 @@
       <c r="BA301" t="s">
         <v>184</v>
       </c>
-      <c r="BB301">
-        <v>0</v>
-      </c>
-      <c r="BC301">
-        <v>1</v>
-      </c>
-      <c r="BD301">
-        <v>0</v>
-      </c>
-      <c r="BE301">
-        <v>0</v>
+      <c r="BB301" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC301" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD301" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE301" t="s">
+        <v>61</v>
       </c>
       <c r="BF301" t="s">
         <v>1689</v>
@@ -49060,17 +48452,17 @@
       <c r="BA302" t="s">
         <v>83</v>
       </c>
-      <c r="BB302">
-        <v>1</v>
-      </c>
-      <c r="BC302">
-        <v>0</v>
-      </c>
-      <c r="BD302">
-        <v>0</v>
-      </c>
-      <c r="BE302">
-        <v>0</v>
+      <c r="BB302" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC302" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD302" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE302" t="s">
+        <v>61</v>
       </c>
       <c r="BF302" t="s">
         <v>1694</v>
@@ -49304,17 +48696,17 @@
       <c r="BA304" t="s">
         <v>83</v>
       </c>
-      <c r="BB304">
-        <v>1</v>
-      </c>
-      <c r="BC304">
-        <v>0</v>
-      </c>
-      <c r="BD304">
-        <v>0</v>
-      </c>
-      <c r="BE304">
-        <v>0</v>
+      <c r="BB304" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC304" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD304" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE304" t="s">
+        <v>61</v>
       </c>
       <c r="BF304" t="s">
         <v>1708</v>
@@ -49453,17 +48845,17 @@
       <c r="BA305" t="s">
         <v>127</v>
       </c>
-      <c r="BB305">
-        <v>0</v>
-      </c>
-      <c r="BC305">
-        <v>0</v>
-      </c>
-      <c r="BD305">
-        <v>0</v>
-      </c>
-      <c r="BE305">
-        <v>1</v>
+      <c r="BB305" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC305" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD305" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE305" t="s">
+        <v>63</v>
       </c>
       <c r="BF305" t="s">
         <v>1714</v>
@@ -49569,17 +48961,17 @@
       <c r="BA306" t="s">
         <v>127</v>
       </c>
-      <c r="BB306">
-        <v>0</v>
-      </c>
-      <c r="BC306">
-        <v>0</v>
-      </c>
-      <c r="BD306">
-        <v>0</v>
-      </c>
-      <c r="BE306">
-        <v>1</v>
+      <c r="BB306" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC306" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD306" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE306" t="s">
+        <v>63</v>
       </c>
       <c r="BF306" t="s">
         <v>1721</v>
@@ -49727,17 +49119,17 @@
       <c r="BA307" t="s">
         <v>83</v>
       </c>
-      <c r="BB307">
-        <v>1</v>
-      </c>
-      <c r="BC307">
-        <v>0</v>
-      </c>
-      <c r="BD307">
-        <v>0</v>
-      </c>
-      <c r="BE307">
-        <v>0</v>
+      <c r="BB307" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC307" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD307" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE307" t="s">
+        <v>61</v>
       </c>
       <c r="BF307" t="s">
         <v>1727</v>
@@ -49882,17 +49274,17 @@
       <c r="BA308" t="s">
         <v>83</v>
       </c>
-      <c r="BB308">
-        <v>1</v>
-      </c>
-      <c r="BC308">
-        <v>0</v>
-      </c>
-      <c r="BD308">
-        <v>0</v>
-      </c>
-      <c r="BE308">
-        <v>0</v>
+      <c r="BB308" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC308" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD308" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE308" t="s">
+        <v>61</v>
       </c>
       <c r="BF308" t="s">
         <v>419</v>
@@ -49983,17 +49375,17 @@
       <c r="BA309" t="s">
         <v>127</v>
       </c>
-      <c r="BB309">
-        <v>0</v>
-      </c>
-      <c r="BC309">
-        <v>0</v>
-      </c>
-      <c r="BD309">
-        <v>0</v>
-      </c>
-      <c r="BE309">
-        <v>1</v>
+      <c r="BB309" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC309" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD309" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE309" t="s">
+        <v>63</v>
       </c>
       <c r="BF309" t="s">
         <v>1736</v>
@@ -50126,17 +49518,17 @@
       <c r="BA310" t="s">
         <v>127</v>
       </c>
-      <c r="BB310">
-        <v>0</v>
-      </c>
-      <c r="BC310">
-        <v>0</v>
-      </c>
-      <c r="BD310">
-        <v>0</v>
-      </c>
-      <c r="BE310">
-        <v>1</v>
+      <c r="BB310" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC310" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD310" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE310" t="s">
+        <v>63</v>
       </c>
       <c r="BF310" t="s">
         <v>1741</v>
@@ -50245,17 +49637,17 @@
       <c r="BA311" t="s">
         <v>83</v>
       </c>
-      <c r="BB311">
-        <v>1</v>
-      </c>
-      <c r="BC311">
-        <v>0</v>
-      </c>
-      <c r="BD311">
-        <v>0</v>
-      </c>
-      <c r="BE311">
-        <v>0</v>
+      <c r="BB311" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC311" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD311" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE311" t="s">
+        <v>61</v>
       </c>
       <c r="BF311" t="s">
         <v>1748</v>
@@ -50400,17 +49792,17 @@
       <c r="BA312" t="s">
         <v>83</v>
       </c>
-      <c r="BB312">
-        <v>1</v>
-      </c>
-      <c r="BC312">
-        <v>0</v>
-      </c>
-      <c r="BD312">
-        <v>0</v>
-      </c>
-      <c r="BE312">
-        <v>0</v>
+      <c r="BB312" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC312" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD312" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE312" t="s">
+        <v>61</v>
       </c>
       <c r="BF312" t="s">
         <v>1748</v>
@@ -50650,17 +50042,17 @@
       <c r="BA314" t="s">
         <v>144</v>
       </c>
-      <c r="BB314">
-        <v>1</v>
-      </c>
-      <c r="BC314">
-        <v>1</v>
-      </c>
-      <c r="BD314">
-        <v>0</v>
-      </c>
-      <c r="BE314">
-        <v>0</v>
+      <c r="BB314" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC314" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD314" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE314" t="s">
+        <v>61</v>
       </c>
       <c r="BF314" t="s">
         <v>1765</v>
@@ -50751,17 +50143,17 @@
       <c r="BA315" t="s">
         <v>127</v>
       </c>
-      <c r="BB315">
-        <v>0</v>
-      </c>
-      <c r="BC315">
-        <v>0</v>
-      </c>
-      <c r="BD315">
-        <v>0</v>
-      </c>
-      <c r="BE315">
-        <v>1</v>
+      <c r="BB315" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC315" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD315" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE315" t="s">
+        <v>63</v>
       </c>
       <c r="BF315" t="s">
         <v>1770</v>
@@ -50852,17 +50244,17 @@
       <c r="BA316" t="s">
         <v>1635</v>
       </c>
-      <c r="BB316">
-        <v>0</v>
-      </c>
-      <c r="BC316">
-        <v>0</v>
-      </c>
-      <c r="BD316">
-        <v>1</v>
-      </c>
-      <c r="BE316">
-        <v>0</v>
+      <c r="BB316" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC316" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD316" t="s">
+        <v>63</v>
+      </c>
+      <c r="BE316" t="s">
+        <v>61</v>
       </c>
       <c r="BF316" t="s">
         <v>1775</v>
@@ -51230,17 +50622,17 @@
       <c r="BA319" t="s">
         <v>127</v>
       </c>
-      <c r="BB319">
-        <v>0</v>
-      </c>
-      <c r="BC319">
-        <v>0</v>
-      </c>
-      <c r="BD319">
-        <v>0</v>
-      </c>
-      <c r="BE319">
-        <v>1</v>
+      <c r="BB319" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC319" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD319" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE319" t="s">
+        <v>63</v>
       </c>
       <c r="BF319" t="s">
         <v>1790</v>
@@ -51373,17 +50765,17 @@
       <c r="BA320" t="s">
         <v>127</v>
       </c>
-      <c r="BB320">
-        <v>0</v>
-      </c>
-      <c r="BC320">
-        <v>0</v>
-      </c>
-      <c r="BD320">
-        <v>0</v>
-      </c>
-      <c r="BE320">
-        <v>1</v>
+      <c r="BB320" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC320" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD320" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE320" t="s">
+        <v>63</v>
       </c>
       <c r="BF320" t="s">
         <v>1794</v>
@@ -51933,17 +51325,17 @@
       <c r="BA324" t="s">
         <v>127</v>
       </c>
-      <c r="BB324">
-        <v>0</v>
-      </c>
-      <c r="BC324">
-        <v>0</v>
-      </c>
-      <c r="BD324">
-        <v>0</v>
-      </c>
-      <c r="BE324">
-        <v>1</v>
+      <c r="BB324" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC324" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD324" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE324" t="s">
+        <v>63</v>
       </c>
       <c r="BF324" t="s">
         <v>1816</v>
@@ -52079,17 +51471,17 @@
       <c r="BA325" t="s">
         <v>127</v>
       </c>
-      <c r="BB325">
-        <v>0</v>
-      </c>
-      <c r="BC325">
-        <v>0</v>
-      </c>
-      <c r="BD325">
-        <v>0</v>
-      </c>
-      <c r="BE325">
-        <v>1</v>
+      <c r="BB325" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC325" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD325" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE325" t="s">
+        <v>63</v>
       </c>
       <c r="BF325" t="s">
         <v>1822</v>
@@ -52180,17 +51572,17 @@
       <c r="BA326" t="s">
         <v>83</v>
       </c>
-      <c r="BB326">
-        <v>1</v>
-      </c>
-      <c r="BC326">
-        <v>0</v>
-      </c>
-      <c r="BD326">
-        <v>0</v>
-      </c>
-      <c r="BE326">
-        <v>0</v>
+      <c r="BB326" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC326" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD326" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE326" t="s">
+        <v>61</v>
       </c>
       <c r="BF326" t="s">
         <v>1827</v>
@@ -52338,17 +51730,17 @@
       <c r="BA327" t="s">
         <v>127</v>
       </c>
-      <c r="BB327">
-        <v>0</v>
-      </c>
-      <c r="BC327">
-        <v>0</v>
-      </c>
-      <c r="BD327">
-        <v>0</v>
-      </c>
-      <c r="BE327">
-        <v>1</v>
+      <c r="BB327" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC327" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD327" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE327" t="s">
+        <v>63</v>
       </c>
       <c r="BF327" t="s">
         <v>313</v>
@@ -52493,17 +51885,17 @@
       <c r="BA328" t="s">
         <v>83</v>
       </c>
-      <c r="BB328">
-        <v>1</v>
-      </c>
-      <c r="BC328">
-        <v>0</v>
-      </c>
-      <c r="BD328">
-        <v>0</v>
-      </c>
-      <c r="BE328">
-        <v>0</v>
+      <c r="BB328" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC328" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD328" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE328" t="s">
+        <v>61</v>
       </c>
       <c r="BF328" t="s">
         <v>1842</v>
@@ -52636,17 +52028,17 @@
       <c r="BA329" t="s">
         <v>184</v>
       </c>
-      <c r="BB329">
-        <v>0</v>
-      </c>
-      <c r="BC329">
-        <v>1</v>
-      </c>
-      <c r="BD329">
-        <v>0</v>
-      </c>
-      <c r="BE329">
-        <v>0</v>
+      <c r="BB329" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC329" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD329" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE329" t="s">
+        <v>61</v>
       </c>
       <c r="BF329" t="s">
         <v>1846</v>
@@ -52779,17 +52171,17 @@
       <c r="BA330" t="s">
         <v>127</v>
       </c>
-      <c r="BB330">
-        <v>0</v>
-      </c>
-      <c r="BC330">
-        <v>0</v>
-      </c>
-      <c r="BD330">
-        <v>0</v>
-      </c>
-      <c r="BE330">
-        <v>1</v>
+      <c r="BB330" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC330" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD330" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE330" t="s">
+        <v>63</v>
       </c>
       <c r="BF330" t="s">
         <v>1851</v>
@@ -52922,17 +52314,17 @@
       <c r="BA331" t="s">
         <v>127</v>
       </c>
-      <c r="BB331">
-        <v>0</v>
-      </c>
-      <c r="BC331">
-        <v>0</v>
-      </c>
-      <c r="BD331">
-        <v>0</v>
-      </c>
-      <c r="BE331">
-        <v>1</v>
+      <c r="BB331" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC331" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD331" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE331" t="s">
+        <v>63</v>
       </c>
       <c r="BF331" t="s">
         <v>1856</v>
@@ -53068,17 +52460,17 @@
       <c r="BA332" t="s">
         <v>83</v>
       </c>
-      <c r="BB332">
-        <v>1</v>
-      </c>
-      <c r="BC332">
-        <v>0</v>
-      </c>
-      <c r="BD332">
-        <v>0</v>
-      </c>
-      <c r="BE332">
-        <v>0</v>
+      <c r="BB332" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC332" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD332" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE332" t="s">
+        <v>61</v>
       </c>
       <c r="BF332" t="s">
         <v>308</v>
@@ -53181,17 +52573,17 @@
       <c r="BA333" t="s">
         <v>127</v>
       </c>
-      <c r="BB333">
-        <v>0</v>
-      </c>
-      <c r="BC333">
-        <v>0</v>
-      </c>
-      <c r="BD333">
-        <v>0</v>
-      </c>
-      <c r="BE333">
-        <v>1</v>
+      <c r="BB333" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC333" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD333" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE333" t="s">
+        <v>63</v>
       </c>
       <c r="BF333" t="s">
         <v>1865</v>
@@ -53339,17 +52731,17 @@
       <c r="BA334" t="s">
         <v>127</v>
       </c>
-      <c r="BB334">
-        <v>0</v>
-      </c>
-      <c r="BC334">
-        <v>0</v>
-      </c>
-      <c r="BD334">
-        <v>0</v>
-      </c>
-      <c r="BE334">
-        <v>1</v>
+      <c r="BB334" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC334" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD334" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE334" t="s">
+        <v>63</v>
       </c>
       <c r="BF334" t="s">
         <v>1871</v>
@@ -53577,17 +52969,17 @@
       <c r="BA336" t="s">
         <v>184</v>
       </c>
-      <c r="BB336">
-        <v>0</v>
-      </c>
-      <c r="BC336">
-        <v>1</v>
-      </c>
-      <c r="BD336">
-        <v>0</v>
-      </c>
-      <c r="BE336">
-        <v>0</v>
+      <c r="BB336" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC336" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD336" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE336" t="s">
+        <v>61</v>
       </c>
       <c r="BF336" t="s">
         <v>1882</v>
@@ -53720,17 +53112,17 @@
       <c r="BA337" t="s">
         <v>127</v>
       </c>
-      <c r="BB337">
-        <v>0</v>
-      </c>
-      <c r="BC337">
-        <v>0</v>
-      </c>
-      <c r="BD337">
-        <v>0</v>
-      </c>
-      <c r="BE337">
-        <v>1</v>
+      <c r="BB337" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC337" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD337" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE337" t="s">
+        <v>63</v>
       </c>
       <c r="BF337" t="s">
         <v>192</v>
@@ -53821,17 +53213,17 @@
       <c r="BA338" t="s">
         <v>83</v>
       </c>
-      <c r="BB338">
-        <v>1</v>
-      </c>
-      <c r="BC338">
-        <v>0</v>
-      </c>
-      <c r="BD338">
-        <v>0</v>
-      </c>
-      <c r="BE338">
-        <v>0</v>
+      <c r="BB338" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC338" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD338" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE338" t="s">
+        <v>61</v>
       </c>
       <c r="BF338" t="s">
         <v>313</v>
@@ -53979,17 +53371,17 @@
       <c r="BA339" t="s">
         <v>144</v>
       </c>
-      <c r="BB339">
-        <v>1</v>
-      </c>
-      <c r="BC339">
-        <v>1</v>
-      </c>
-      <c r="BD339">
-        <v>0</v>
-      </c>
-      <c r="BE339">
-        <v>0</v>
+      <c r="BB339" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC339" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD339" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE339" t="s">
+        <v>61</v>
       </c>
       <c r="BF339" t="s">
         <v>128</v>
@@ -54262,17 +53654,17 @@
       <c r="BA341" t="s">
         <v>83</v>
       </c>
-      <c r="BB341">
-        <v>1</v>
-      </c>
-      <c r="BC341">
-        <v>0</v>
-      </c>
-      <c r="BD341">
-        <v>0</v>
-      </c>
-      <c r="BE341">
-        <v>0</v>
+      <c r="BB341" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC341" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD341" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE341" t="s">
+        <v>61</v>
       </c>
       <c r="BF341" t="s">
         <v>1901</v>
@@ -54405,17 +53797,17 @@
       <c r="BA342" t="s">
         <v>184</v>
       </c>
-      <c r="BB342">
-        <v>0</v>
-      </c>
-      <c r="BC342">
-        <v>1</v>
-      </c>
-      <c r="BD342">
-        <v>0</v>
-      </c>
-      <c r="BE342">
-        <v>0</v>
+      <c r="BB342" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC342" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD342" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE342" t="s">
+        <v>61</v>
       </c>
       <c r="BF342" t="s">
         <v>1906</v>
@@ -54548,17 +53940,17 @@
       <c r="BA343" t="s">
         <v>127</v>
       </c>
-      <c r="BB343">
-        <v>0</v>
-      </c>
-      <c r="BC343">
-        <v>0</v>
-      </c>
-      <c r="BD343">
-        <v>0</v>
-      </c>
-      <c r="BE343">
-        <v>1</v>
+      <c r="BB343" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC343" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD343" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE343" t="s">
+        <v>63</v>
       </c>
       <c r="BF343" t="s">
         <v>1911</v>
@@ -54789,17 +54181,17 @@
       <c r="BA345" t="s">
         <v>127</v>
       </c>
-      <c r="BB345">
-        <v>0</v>
-      </c>
-      <c r="BC345">
-        <v>0</v>
-      </c>
-      <c r="BD345">
-        <v>0</v>
-      </c>
-      <c r="BE345">
-        <v>1</v>
+      <c r="BB345" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC345" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD345" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE345" t="s">
+        <v>63</v>
       </c>
       <c r="BF345" t="s">
         <v>1922</v>
@@ -54944,17 +54336,17 @@
       <c r="BA346" t="s">
         <v>83</v>
       </c>
-      <c r="BB346">
-        <v>1</v>
-      </c>
-      <c r="BC346">
-        <v>0</v>
-      </c>
-      <c r="BD346">
-        <v>0</v>
-      </c>
-      <c r="BE346">
-        <v>0</v>
+      <c r="BB346" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC346" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD346" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE346" t="s">
+        <v>61</v>
       </c>
       <c r="BF346" t="s">
         <v>1928</v>
@@ -55319,17 +54711,17 @@
       <c r="BA349" t="s">
         <v>184</v>
       </c>
-      <c r="BB349">
-        <v>0</v>
-      </c>
-      <c r="BC349">
-        <v>1</v>
-      </c>
-      <c r="BD349">
-        <v>0</v>
-      </c>
-      <c r="BE349">
-        <v>0</v>
+      <c r="BB349" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC349" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD349" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE349" t="s">
+        <v>61</v>
       </c>
       <c r="BF349" t="s">
         <v>1943</v>
@@ -55462,17 +54854,17 @@
       <c r="BA350" t="s">
         <v>83</v>
       </c>
-      <c r="BB350">
-        <v>1</v>
-      </c>
-      <c r="BC350">
-        <v>0</v>
-      </c>
-      <c r="BD350">
-        <v>0</v>
-      </c>
-      <c r="BE350">
-        <v>0</v>
+      <c r="BB350" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC350" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD350" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE350" t="s">
+        <v>61</v>
       </c>
       <c r="BF350" t="s">
         <v>1117</v>
@@ -55605,17 +54997,17 @@
       <c r="BA351" t="s">
         <v>184</v>
       </c>
-      <c r="BB351">
-        <v>0</v>
-      </c>
-      <c r="BC351">
-        <v>1</v>
-      </c>
-      <c r="BD351">
-        <v>0</v>
-      </c>
-      <c r="BE351">
-        <v>0</v>
+      <c r="BB351" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC351" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD351" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE351" t="s">
+        <v>61</v>
       </c>
       <c r="BF351" t="s">
         <v>830</v>
@@ -55763,17 +55155,17 @@
       <c r="BA352" t="s">
         <v>83</v>
       </c>
-      <c r="BB352">
-        <v>1</v>
-      </c>
-      <c r="BC352">
-        <v>0</v>
-      </c>
-      <c r="BD352">
-        <v>0</v>
-      </c>
-      <c r="BE352">
-        <v>0</v>
+      <c r="BB352" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC352" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD352" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE352" t="s">
+        <v>61</v>
       </c>
       <c r="BF352" t="s">
         <v>1956</v>
@@ -56007,17 +55399,17 @@
       <c r="BA354" t="s">
         <v>83</v>
       </c>
-      <c r="BB354">
-        <v>1</v>
-      </c>
-      <c r="BC354">
-        <v>0</v>
-      </c>
-      <c r="BD354">
-        <v>0</v>
-      </c>
-      <c r="BE354">
-        <v>0</v>
+      <c r="BB354" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC354" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD354" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE354" t="s">
+        <v>61</v>
       </c>
       <c r="BF354" t="s">
         <v>1969</v>
@@ -56150,17 +55542,17 @@
       <c r="BA355" t="s">
         <v>127</v>
       </c>
-      <c r="BB355">
-        <v>0</v>
-      </c>
-      <c r="BC355">
-        <v>0</v>
-      </c>
-      <c r="BD355">
-        <v>0</v>
-      </c>
-      <c r="BE355">
-        <v>1</v>
+      <c r="BB355" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC355" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD355" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE355" t="s">
+        <v>63</v>
       </c>
       <c r="BF355" t="s">
         <v>1974</v>
@@ -56543,17 +55935,17 @@
       <c r="BA358" t="s">
         <v>127</v>
       </c>
-      <c r="BB358">
-        <v>0</v>
-      </c>
-      <c r="BC358">
-        <v>0</v>
-      </c>
-      <c r="BD358">
-        <v>0</v>
-      </c>
-      <c r="BE358">
-        <v>1</v>
+      <c r="BB358" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC358" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD358" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE358" t="s">
+        <v>63</v>
       </c>
       <c r="BF358" t="s">
         <v>1991</v>
@@ -56686,17 +56078,17 @@
       <c r="BA359" t="s">
         <v>83</v>
       </c>
-      <c r="BB359">
-        <v>1</v>
-      </c>
-      <c r="BC359">
-        <v>0</v>
-      </c>
-      <c r="BD359">
-        <v>0</v>
-      </c>
-      <c r="BE359">
-        <v>0</v>
+      <c r="BB359" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC359" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD359" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE359" t="s">
+        <v>61</v>
       </c>
       <c r="BF359" t="s">
         <v>1996</v>
@@ -56829,17 +56221,17 @@
       <c r="BA360" t="s">
         <v>83</v>
       </c>
-      <c r="BB360">
-        <v>1</v>
-      </c>
-      <c r="BC360">
-        <v>0</v>
-      </c>
-      <c r="BD360">
-        <v>0</v>
-      </c>
-      <c r="BE360">
-        <v>0</v>
+      <c r="BB360" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC360" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD360" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE360" t="s">
+        <v>61</v>
       </c>
       <c r="BF360" t="s">
         <v>2000</v>
@@ -56984,17 +56376,17 @@
       <c r="BA361" t="s">
         <v>83</v>
       </c>
-      <c r="BB361">
-        <v>1</v>
-      </c>
-      <c r="BC361">
-        <v>0</v>
-      </c>
-      <c r="BD361">
-        <v>0</v>
-      </c>
-      <c r="BE361">
-        <v>0</v>
+      <c r="BB361" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC361" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD361" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE361" t="s">
+        <v>61</v>
       </c>
       <c r="BF361" t="s">
         <v>2006</v>
@@ -57127,17 +56519,17 @@
       <c r="BA362" t="s">
         <v>83</v>
       </c>
-      <c r="BB362">
-        <v>1</v>
-      </c>
-      <c r="BC362">
-        <v>0</v>
-      </c>
-      <c r="BD362">
-        <v>0</v>
-      </c>
-      <c r="BE362">
-        <v>0</v>
+      <c r="BB362" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC362" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD362" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE362" t="s">
+        <v>61</v>
       </c>
       <c r="BF362" t="s">
         <v>2009</v>
@@ -57270,17 +56662,17 @@
       <c r="BA363" t="s">
         <v>83</v>
       </c>
-      <c r="BB363">
-        <v>1</v>
-      </c>
-      <c r="BC363">
-        <v>0</v>
-      </c>
-      <c r="BD363">
-        <v>0</v>
-      </c>
-      <c r="BE363">
-        <v>0</v>
+      <c r="BB363" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC363" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD363" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE363" t="s">
+        <v>61</v>
       </c>
       <c r="BF363" t="s">
         <v>2011</v>
@@ -57425,17 +56817,17 @@
       <c r="BA364" t="s">
         <v>83</v>
       </c>
-      <c r="BB364">
-        <v>1</v>
-      </c>
-      <c r="BC364">
-        <v>0</v>
-      </c>
-      <c r="BD364">
-        <v>0</v>
-      </c>
-      <c r="BE364">
-        <v>0</v>
+      <c r="BB364" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC364" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD364" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE364" t="s">
+        <v>61</v>
       </c>
       <c r="BF364" t="s">
         <v>89</v>
@@ -57568,17 +56960,17 @@
       <c r="BA365" t="s">
         <v>184</v>
       </c>
-      <c r="BB365">
-        <v>0</v>
-      </c>
-      <c r="BC365">
-        <v>1</v>
-      </c>
-      <c r="BD365">
-        <v>0</v>
-      </c>
-      <c r="BE365">
-        <v>0</v>
+      <c r="BB365" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC365" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD365" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE365" t="s">
+        <v>61</v>
       </c>
       <c r="BF365" t="s">
         <v>128</v>
@@ -57711,17 +57103,17 @@
       <c r="BA366" t="s">
         <v>83</v>
       </c>
-      <c r="BB366">
-        <v>1</v>
-      </c>
-      <c r="BC366">
-        <v>0</v>
-      </c>
-      <c r="BD366">
-        <v>0</v>
-      </c>
-      <c r="BE366">
-        <v>0</v>
+      <c r="BB366" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC366" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD366" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE366" t="s">
+        <v>61</v>
       </c>
       <c r="BF366" t="s">
         <v>128</v>
@@ -57854,17 +57246,17 @@
       <c r="BA367" t="s">
         <v>83</v>
       </c>
-      <c r="BB367">
-        <v>1</v>
-      </c>
-      <c r="BC367">
-        <v>0</v>
-      </c>
-      <c r="BD367">
-        <v>0</v>
-      </c>
-      <c r="BE367">
-        <v>0</v>
+      <c r="BB367" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC367" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD367" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE367" t="s">
+        <v>61</v>
       </c>
       <c r="BF367" t="s">
         <v>2024</v>
@@ -58038,17 +57430,17 @@
       <c r="BA369" t="s">
         <v>83</v>
       </c>
-      <c r="BB369">
-        <v>1</v>
-      </c>
-      <c r="BC369">
-        <v>0</v>
-      </c>
-      <c r="BD369">
-        <v>0</v>
-      </c>
-      <c r="BE369">
-        <v>0</v>
+      <c r="BB369" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC369" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD369" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE369" t="s">
+        <v>61</v>
       </c>
       <c r="BF369" t="s">
         <v>313</v>
@@ -58193,17 +57585,17 @@
       <c r="BA370" t="s">
         <v>83</v>
       </c>
-      <c r="BB370">
-        <v>1</v>
-      </c>
-      <c r="BC370">
-        <v>0</v>
-      </c>
-      <c r="BD370">
-        <v>0</v>
-      </c>
-      <c r="BE370">
-        <v>0</v>
+      <c r="BB370" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC370" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD370" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE370" t="s">
+        <v>61</v>
       </c>
       <c r="BF370" t="s">
         <v>313</v>
@@ -58621,17 +58013,17 @@
       <c r="BA374" t="s">
         <v>127</v>
       </c>
-      <c r="BB374">
-        <v>0</v>
-      </c>
-      <c r="BC374">
-        <v>0</v>
-      </c>
-      <c r="BD374">
-        <v>0</v>
-      </c>
-      <c r="BE374">
-        <v>1</v>
+      <c r="BB374" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC374" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD374" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE374" t="s">
+        <v>63</v>
       </c>
       <c r="BF374" t="s">
         <v>2053</v>
@@ -58782,17 +58174,17 @@
       <c r="BA375" t="s">
         <v>83</v>
       </c>
-      <c r="BB375">
-        <v>1</v>
-      </c>
-      <c r="BC375">
-        <v>0</v>
-      </c>
-      <c r="BD375">
-        <v>0</v>
-      </c>
-      <c r="BE375">
-        <v>0</v>
+      <c r="BB375" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC375" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD375" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE375" t="s">
+        <v>61</v>
       </c>
       <c r="BF375" t="s">
         <v>2061</v>
@@ -58928,17 +58320,17 @@
       <c r="BA376" t="s">
         <v>127</v>
       </c>
-      <c r="BB376">
-        <v>0</v>
-      </c>
-      <c r="BC376">
-        <v>0</v>
-      </c>
-      <c r="BD376">
-        <v>0</v>
-      </c>
-      <c r="BE376">
-        <v>1</v>
+      <c r="BB376" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC376" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD376" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE376" t="s">
+        <v>63</v>
       </c>
       <c r="BF376" t="s">
         <v>2067</v>
@@ -59199,17 +58591,17 @@
       <c r="BA378" t="s">
         <v>83</v>
       </c>
-      <c r="BB378">
-        <v>1</v>
-      </c>
-      <c r="BC378">
-        <v>0</v>
-      </c>
-      <c r="BD378">
-        <v>0</v>
-      </c>
-      <c r="BE378">
-        <v>0</v>
+      <c r="BB378" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC378" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD378" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE378" t="s">
+        <v>61</v>
       </c>
       <c r="BF378" t="s">
         <v>2076</v>
@@ -59687,17 +59079,17 @@
       <c r="BA382" t="s">
         <v>127</v>
       </c>
-      <c r="BB382">
-        <v>0</v>
-      </c>
-      <c r="BC382">
-        <v>0</v>
-      </c>
-      <c r="BD382">
-        <v>0</v>
-      </c>
-      <c r="BE382">
-        <v>1</v>
+      <c r="BB382" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC382" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD382" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE382" t="s">
+        <v>63</v>
       </c>
       <c r="BF382" t="s">
         <v>2097</v>
@@ -59830,17 +59222,17 @@
       <c r="BA383" t="s">
         <v>127</v>
       </c>
-      <c r="BB383">
-        <v>0</v>
-      </c>
-      <c r="BC383">
-        <v>0</v>
-      </c>
-      <c r="BD383">
-        <v>0</v>
-      </c>
-      <c r="BE383">
-        <v>1</v>
+      <c r="BB383" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC383" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD383" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE383" t="s">
+        <v>63</v>
       </c>
       <c r="BF383" t="s">
         <v>313</v>
@@ -59985,17 +59377,17 @@
       <c r="BA384" t="s">
         <v>127</v>
       </c>
-      <c r="BB384">
-        <v>0</v>
-      </c>
-      <c r="BC384">
-        <v>0</v>
-      </c>
-      <c r="BD384">
-        <v>0</v>
-      </c>
-      <c r="BE384">
-        <v>1</v>
+      <c r="BB384" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC384" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD384" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE384" t="s">
+        <v>63</v>
       </c>
       <c r="BF384" t="s">
         <v>2107</v>
@@ -60098,17 +59490,17 @@
       <c r="BA385" t="s">
         <v>184</v>
       </c>
-      <c r="BB385">
-        <v>0</v>
-      </c>
-      <c r="BC385">
-        <v>1</v>
-      </c>
-      <c r="BD385">
-        <v>0</v>
-      </c>
-      <c r="BE385">
-        <v>0</v>
+      <c r="BB385" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC385" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD385" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE385" t="s">
+        <v>61</v>
       </c>
       <c r="BF385" t="s">
         <v>2113</v>
@@ -60336,17 +59728,17 @@
       <c r="BA387" t="s">
         <v>83</v>
       </c>
-      <c r="BB387">
-        <v>1</v>
-      </c>
-      <c r="BC387">
-        <v>0</v>
-      </c>
-      <c r="BD387">
-        <v>0</v>
-      </c>
-      <c r="BE387">
-        <v>0</v>
+      <c r="BB387" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC387" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD387" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE387" t="s">
+        <v>61</v>
       </c>
       <c r="BF387" t="s">
         <v>1524</v>
@@ -60574,17 +59966,17 @@
       <c r="BA389" t="s">
         <v>127</v>
       </c>
-      <c r="BB389">
-        <v>0</v>
-      </c>
-      <c r="BC389">
-        <v>0</v>
-      </c>
-      <c r="BD389">
-        <v>0</v>
-      </c>
-      <c r="BE389">
-        <v>1</v>
+      <c r="BB389" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC389" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD389" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE389" t="s">
+        <v>63</v>
       </c>
       <c r="BF389" t="s">
         <v>2133</v>
@@ -60729,17 +60121,17 @@
       <c r="BA390" t="s">
         <v>127</v>
       </c>
-      <c r="BB390">
-        <v>0</v>
-      </c>
-      <c r="BC390">
-        <v>0</v>
-      </c>
-      <c r="BD390">
-        <v>0</v>
-      </c>
-      <c r="BE390">
-        <v>1</v>
+      <c r="BB390" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC390" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD390" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE390" t="s">
+        <v>63</v>
       </c>
       <c r="BF390" t="s">
         <v>2139</v>
@@ -61174,17 +60566,17 @@
       <c r="BA395" t="s">
         <v>184</v>
       </c>
-      <c r="BB395">
-        <v>0</v>
-      </c>
-      <c r="BC395">
-        <v>1</v>
-      </c>
-      <c r="BD395">
-        <v>0</v>
-      </c>
-      <c r="BE395">
-        <v>0</v>
+      <c r="BB395" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC395" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD395" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE395" t="s">
+        <v>61</v>
       </c>
       <c r="BF395" t="s">
         <v>313</v>
@@ -61317,17 +60709,17 @@
       <c r="BA396" t="s">
         <v>184</v>
       </c>
-      <c r="BB396">
-        <v>0</v>
-      </c>
-      <c r="BC396">
-        <v>1</v>
-      </c>
-      <c r="BD396">
-        <v>0</v>
-      </c>
-      <c r="BE396">
-        <v>0</v>
+      <c r="BB396" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC396" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD396" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE396" t="s">
+        <v>61</v>
       </c>
       <c r="BF396" t="s">
         <v>2168</v>
@@ -61725,17 +61117,17 @@
       <c r="BA399" t="s">
         <v>83</v>
       </c>
-      <c r="BB399">
-        <v>1</v>
-      </c>
-      <c r="BC399">
-        <v>0</v>
-      </c>
-      <c r="BD399">
-        <v>0</v>
-      </c>
-      <c r="BE399">
-        <v>0</v>
+      <c r="BB399" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC399" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD399" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE399" t="s">
+        <v>61</v>
       </c>
       <c r="BF399" t="s">
         <v>1622</v>
@@ -61880,17 +61272,17 @@
       <c r="BA400" t="s">
         <v>83</v>
       </c>
-      <c r="BB400">
-        <v>1</v>
-      </c>
-      <c r="BC400">
-        <v>0</v>
-      </c>
-      <c r="BD400">
-        <v>0</v>
-      </c>
-      <c r="BE400">
-        <v>0</v>
+      <c r="BB400" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC400" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD400" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE400" t="s">
+        <v>61</v>
       </c>
       <c r="BF400" t="s">
         <v>2189</v>
@@ -62026,17 +61418,17 @@
       <c r="BA401" t="s">
         <v>83</v>
       </c>
-      <c r="BB401">
-        <v>1</v>
-      </c>
-      <c r="BC401">
-        <v>0</v>
-      </c>
-      <c r="BD401">
-        <v>0</v>
-      </c>
-      <c r="BE401">
-        <v>0</v>
+      <c r="BB401" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC401" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD401" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE401" t="s">
+        <v>61</v>
       </c>
       <c r="BF401" t="s">
         <v>2195</v>
@@ -62172,17 +61564,17 @@
       <c r="BA402" t="s">
         <v>83</v>
       </c>
-      <c r="BB402">
-        <v>1</v>
-      </c>
-      <c r="BC402">
-        <v>0</v>
-      </c>
-      <c r="BD402">
-        <v>0</v>
-      </c>
-      <c r="BE402">
-        <v>0</v>
+      <c r="BB402" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC402" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD402" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE402" t="s">
+        <v>61</v>
       </c>
       <c r="BF402" t="s">
         <v>2197</v>
@@ -62285,17 +61677,17 @@
       <c r="BA403" t="s">
         <v>1635</v>
       </c>
-      <c r="BB403">
-        <v>0</v>
-      </c>
-      <c r="BC403">
-        <v>0</v>
-      </c>
-      <c r="BD403">
-        <v>1</v>
-      </c>
-      <c r="BE403">
-        <v>0</v>
+      <c r="BB403" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC403" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD403" t="s">
+        <v>63</v>
+      </c>
+      <c r="BE403" t="s">
+        <v>61</v>
       </c>
       <c r="BF403" t="s">
         <v>2202</v>
@@ -62443,17 +61835,17 @@
       <c r="BA404" t="s">
         <v>83</v>
       </c>
-      <c r="BB404">
-        <v>1</v>
-      </c>
-      <c r="BC404">
-        <v>0</v>
-      </c>
-      <c r="BD404">
-        <v>0</v>
-      </c>
-      <c r="BE404">
-        <v>0</v>
+      <c r="BB404" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC404" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD404" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE404" t="s">
+        <v>61</v>
       </c>
       <c r="BF404" t="s">
         <v>2208</v>
@@ -63103,17 +62495,17 @@
       <c r="BA410" t="s">
         <v>127</v>
       </c>
-      <c r="BB410">
-        <v>0</v>
-      </c>
-      <c r="BC410">
-        <v>0</v>
-      </c>
-      <c r="BD410">
-        <v>0</v>
-      </c>
-      <c r="BE410">
-        <v>1</v>
+      <c r="BB410" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC410" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD410" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE410" t="s">
+        <v>63</v>
       </c>
       <c r="BF410" t="s">
         <v>313</v>
@@ -63374,17 +62766,17 @@
       <c r="BA412" t="s">
         <v>83</v>
       </c>
-      <c r="BB412">
-        <v>1</v>
-      </c>
-      <c r="BC412">
-        <v>0</v>
-      </c>
-      <c r="BD412">
-        <v>0</v>
-      </c>
-      <c r="BE412">
-        <v>0</v>
+      <c r="BB412" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC412" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD412" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE412" t="s">
+        <v>61</v>
       </c>
       <c r="BF412" t="s">
         <v>2244</v>
@@ -63517,17 +62909,17 @@
       <c r="BA413" t="s">
         <v>127</v>
       </c>
-      <c r="BB413">
-        <v>0</v>
-      </c>
-      <c r="BC413">
-        <v>0</v>
-      </c>
-      <c r="BD413">
-        <v>0</v>
-      </c>
-      <c r="BE413">
-        <v>1</v>
+      <c r="BB413" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC413" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD413" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE413" t="s">
+        <v>63</v>
       </c>
       <c r="BF413" t="s">
         <v>179</v>
@@ -63662,10 +63054,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BG414">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:BG414" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>